--- a/src/layerSolutions_left_Civil.xlsx
+++ b/src/layerSolutions_left_Civil.xlsx
@@ -564,10 +564,10 @@
         <v>-2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>-13.452</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T2" s="2" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>-2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>-14.169</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>-13.64</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T4" s="2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>-2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>-13.653</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>-2</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>-13.605</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>-2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>-14.207</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T7" s="2" t="n">
         <v>0</v>
@@ -942,10 +942,10 @@
         <v>-2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>-10.541</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>-2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1045,10 +1045,10 @@
         <v>-10.654</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T9" s="2" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>-2</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>-10.673</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>-2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>-10.704</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T11" s="2" t="n">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>-2</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>-10.767</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>-2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>-10.728</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T13" s="2" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>-2</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>-10.747</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
@@ -1383,10 +1383,10 @@
         <v>-2</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>-10.712</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T15" s="2" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         <v>-2</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -1486,10 +1486,10 @@
         <v>-10.721</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>-2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>-10.711</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T17" s="2" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>-2.00011</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>-10.664</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>-1.99961</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>-10.548</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T19" s="2" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>-1.99935</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>-10.299</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
@@ -1761,10 +1761,10 @@
         <v>-1.99929</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>-10.014</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T21" s="2" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>-1.99955</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>-9.792</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
@@ -1887,10 +1887,10 @@
         <v>-2</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>-9.625</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T23" s="2" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>-1.717</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>-9.685</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>-1.4335</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>-12.241</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T25" s="2" t="n">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         <v>-1.15</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>-10.958</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>-0.8665</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>-9.651</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T27" s="2" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>-0.5835</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>-8.446</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>-0.3</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>-6.71</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T29" s="2" t="n">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>-0.3</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>-6.105</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
@@ -2391,10 +2391,10 @@
         <v>-0.3</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>-5.902</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T31" s="2" t="n">
         <v>0</v>
@@ -6431,10 +6431,10 @@
         <v>-0.3</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>0</v>
@@ -6471,10 +6471,10 @@
         <v>-2.48</v>
       </c>
       <c r="R97" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S97" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T97" s="2" t="n">
         <v>0</v>
@@ -10088,10 +10088,10 @@
         <v>-2.457</v>
       </c>
       <c r="M156" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N156" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O156" s="2" t="n">
         <v>0</v>
@@ -10103,10 +10103,10 @@
         <v>-9.773</v>
       </c>
       <c r="R156" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S156" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T156" s="2" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>-0.3</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>0</v>
@@ -10141,10 +10141,10 @@
         <v>-2.846</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J157" s="2" t="n">
         <v>0</v>
@@ -10156,10 +10156,10 @@
         <v>-2.846</v>
       </c>
       <c r="M157" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N157" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O157" s="2" t="n">
         <v>0</v>
@@ -10171,10 +10171,10 @@
         <v>-10.83</v>
       </c>
       <c r="R157" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S157" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T157" s="2" t="n">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>-3.272</v>
       </c>
       <c r="M158" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N158" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O158" s="2" t="n">
         <v>0</v>
@@ -10239,10 +10239,10 @@
         <v>-11.763</v>
       </c>
       <c r="R158" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S158" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T158" s="2" t="n">
         <v>0</v>
@@ -10292,10 +10292,10 @@
         <v>-3.642</v>
       </c>
       <c r="M159" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N159" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O159" s="2" t="n">
         <v>0</v>
@@ -10307,10 +10307,10 @@
         <v>-12.657</v>
       </c>
       <c r="R159" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S159" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T159" s="2" t="n">
         <v>0</v>
@@ -10330,10 +10330,10 @@
         <v>-0.3</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>0</v>
@@ -10345,10 +10345,10 @@
         <v>-3.906</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J160" s="2" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>-3.906</v>
       </c>
       <c r="M160" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N160" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O160" s="2" t="n">
         <v>0</v>
@@ -10375,10 +10375,10 @@
         <v>-13.443</v>
       </c>
       <c r="R160" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S160" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T160" s="2" t="n">
         <v>0</v>
@@ -10398,10 +10398,10 @@
         <v>-0.3</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>0</v>
@@ -10413,10 +10413,10 @@
         <v>-4.157</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J161" s="2" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>-4.157</v>
       </c>
       <c r="M161" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N161" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O161" s="2" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>-14.083</v>
       </c>
       <c r="R161" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S161" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T161" s="2" t="n">
         <v>0</v>
@@ -10534,10 +10534,10 @@
         <v>-0.3</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>0</v>
@@ -10549,10 +10549,10 @@
         <v>-4.396</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J163" s="2" t="n">
         <v>0</v>
@@ -10602,10 +10602,10 @@
         <v>-0.3</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>0</v>
@@ -10617,10 +10617,10 @@
         <v>-4.481</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J164" s="2" t="n">
         <v>0</v>
@@ -10632,10 +10632,10 @@
         <v>-4.481</v>
       </c>
       <c r="M164" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N164" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O164" s="2" t="n">
         <v>0</v>
@@ -10647,10 +10647,10 @@
         <v>-11.438</v>
       </c>
       <c r="R164" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S164" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T164" s="2" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>-0.3</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>-4.635</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J165" s="2" t="n">
         <v>0</v>
@@ -10700,10 +10700,10 @@
         <v>-4.635</v>
       </c>
       <c r="M165" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N165" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O165" s="2" t="n">
         <v>0</v>
@@ -10715,10 +10715,10 @@
         <v>-11.526</v>
       </c>
       <c r="R165" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S165" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T165" s="2" t="n">
         <v>0</v>
@@ -10738,10 +10738,10 @@
         <v>-0.3</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>0</v>
@@ -10753,10 +10753,10 @@
         <v>-4.568</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J166" s="2" t="n">
         <v>0</v>
@@ -10768,10 +10768,10 @@
         <v>-4.568</v>
       </c>
       <c r="M166" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N166" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O166" s="2" t="n">
         <v>0</v>
@@ -10783,10 +10783,10 @@
         <v>-11.542</v>
       </c>
       <c r="R166" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S166" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T166" s="2" t="n">
         <v>0</v>
@@ -10806,10 +10806,10 @@
         <v>-0.3</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E167" s="2" t="n">
         <v>0</v>
@@ -10821,10 +10821,10 @@
         <v>-4.461</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J167" s="2" t="n">
         <v>0</v>
@@ -10836,10 +10836,10 @@
         <v>-4.461</v>
       </c>
       <c r="M167" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N167" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O167" s="2" t="n">
         <v>0</v>
@@ -10851,10 +10851,10 @@
         <v>-11.467</v>
       </c>
       <c r="R167" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S167" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T167" s="2" t="n">
         <v>0</v>
@@ -10874,10 +10874,10 @@
         <v>-0.3</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>0</v>
@@ -10889,10 +10889,10 @@
         <v>-4.253</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J168" s="2" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>-4.253</v>
       </c>
       <c r="M168" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N168" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O168" s="2" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>-11.362</v>
       </c>
       <c r="R168" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S168" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T168" s="2" t="n">
         <v>0</v>
@@ -10942,10 +10942,10 @@
         <v>-0.3</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E169" s="2" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>-4.252</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J169" s="2" t="n">
         <v>0</v>
@@ -10972,10 +10972,10 @@
         <v>-4.252</v>
       </c>
       <c r="M169" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N169" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O169" s="2" t="n">
         <v>0</v>
@@ -10987,10 +10987,10 @@
         <v>-11.259</v>
       </c>
       <c r="R169" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S169" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T169" s="2" t="n">
         <v>0</v>
@@ -11010,10 +11010,10 @@
         <v>-0.3</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>0</v>
@@ -11025,10 +11025,10 @@
         <v>-4.164</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J170" s="2" t="n">
         <v>0</v>
@@ -11040,10 +11040,10 @@
         <v>-4.164</v>
       </c>
       <c r="M170" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N170" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O170" s="2" t="n">
         <v>0</v>
@@ -11055,10 +11055,10 @@
         <v>-11.148</v>
       </c>
       <c r="R170" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S170" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T170" s="2" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>-0.3</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E171" s="2" t="n">
         <v>0</v>
@@ -11093,10 +11093,10 @@
         <v>-4.036</v>
       </c>
       <c r="H171" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J171" s="2" t="n">
         <v>0</v>
@@ -11108,10 +11108,10 @@
         <v>-4.036</v>
       </c>
       <c r="M171" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N171" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O171" s="2" t="n">
         <v>0</v>
@@ -11123,10 +11123,10 @@
         <v>-13.582</v>
       </c>
       <c r="R171" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S171" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T171" s="2" t="n">
         <v>0</v>
@@ -11146,10 +11146,10 @@
         <v>-0.3</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E172" s="2" t="n">
         <v>0</v>
@@ -11161,10 +11161,10 @@
         <v>-4.007</v>
       </c>
       <c r="H172" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J172" s="2" t="n">
         <v>0</v>
@@ -11176,10 +11176,10 @@
         <v>-4.007</v>
       </c>
       <c r="M172" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N172" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O172" s="2" t="n">
         <v>0</v>
@@ -11191,10 +11191,10 @@
         <v>-13.19</v>
       </c>
       <c r="R172" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S172" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T172" s="2" t="n">
         <v>0</v>
@@ -11214,10 +11214,10 @@
         <v>-0.3</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>0</v>
@@ -11229,10 +11229,10 @@
         <v>-3.944</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J173" s="2" t="n">
         <v>0</v>
@@ -11244,10 +11244,10 @@
         <v>-3.944</v>
       </c>
       <c r="M173" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N173" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O173" s="2" t="n">
         <v>0</v>
@@ -11259,10 +11259,10 @@
         <v>-12.833</v>
       </c>
       <c r="R173" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S173" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T173" s="2" t="n">
         <v>0</v>
@@ -11282,10 +11282,10 @@
         <v>-0.3</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>-3.841</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J174" s="2" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>-3.841</v>
       </c>
       <c r="M174" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N174" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O174" s="2" t="n">
         <v>0</v>
@@ -11327,10 +11327,10 @@
         <v>-12.411</v>
       </c>
       <c r="R174" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S174" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T174" s="2" t="n">
         <v>0</v>
@@ -11380,10 +11380,10 @@
         <v>-3.904</v>
       </c>
       <c r="M175" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N175" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O175" s="2" t="n">
         <v>0</v>
@@ -11395,10 +11395,10 @@
         <v>-11.985</v>
       </c>
       <c r="R175" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S175" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T175" s="2" t="n">
         <v>0</v>
@@ -11418,10 +11418,10 @@
         <v>-0.3</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E176" s="2" t="n">
         <v>0</v>
@@ -11433,10 +11433,10 @@
         <v>-4.002</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J176" s="2" t="n">
         <v>0</v>
@@ -11448,10 +11448,10 @@
         <v>-4.002</v>
       </c>
       <c r="M176" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N176" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O176" s="2" t="n">
         <v>0</v>
@@ -11463,10 +11463,10 @@
         <v>-11.644</v>
       </c>
       <c r="R176" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S176" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T176" s="2" t="n">
         <v>0</v>
@@ -11486,10 +11486,10 @@
         <v>-0.3</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E177" s="2" t="n">
         <v>0</v>
@@ -11501,10 +11501,10 @@
         <v>-4.157</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J177" s="2" t="n">
         <v>0</v>
@@ -11516,10 +11516,10 @@
         <v>-4.157</v>
       </c>
       <c r="M177" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N177" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O177" s="2" t="n">
         <v>0</v>
@@ -11531,10 +11531,10 @@
         <v>-11.37</v>
       </c>
       <c r="R177" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S177" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T177" s="2" t="n">
         <v>0</v>
@@ -11584,10 +11584,10 @@
         <v>-4.366</v>
       </c>
       <c r="M178" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N178" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O178" s="2" t="n">
         <v>0</v>
@@ -11599,10 +11599,10 @@
         <v>-11.303</v>
       </c>
       <c r="R178" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S178" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T178" s="2" t="n">
         <v>0</v>
@@ -11652,10 +11652,10 @@
         <v>-4.438</v>
       </c>
       <c r="M179" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N179" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O179" s="2" t="n">
         <v>0</v>
@@ -11667,10 +11667,10 @@
         <v>-11.322</v>
       </c>
       <c r="R179" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S179" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T179" s="2" t="n">
         <v>0</v>
@@ -11720,10 +11720,10 @@
         <v>-4.278</v>
       </c>
       <c r="M180" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N180" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O180" s="2" t="n">
         <v>0</v>
@@ -11735,10 +11735,10 @@
         <v>-11.242</v>
       </c>
       <c r="R180" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S180" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T180" s="2" t="n">
         <v>0</v>
@@ -11758,10 +11758,10 @@
         <v>-0.3</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E181" s="2" t="n">
         <v>0</v>
@@ -11773,10 +11773,10 @@
         <v>-3.955</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J181" s="2" t="n">
         <v>0</v>
@@ -11788,10 +11788,10 @@
         <v>-3.955</v>
       </c>
       <c r="M181" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N181" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O181" s="2" t="n">
         <v>0</v>
@@ -11803,10 +11803,10 @@
         <v>-10.974</v>
       </c>
       <c r="R181" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S181" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T181" s="2" t="n">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>-0.3</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>0</v>
@@ -11841,10 +11841,10 @@
         <v>-3.483</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J182" s="2" t="n">
         <v>0</v>
@@ -11856,10 +11856,10 @@
         <v>-3.483</v>
       </c>
       <c r="M182" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N182" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O182" s="2" t="n">
         <v>0</v>
@@ -11871,10 +11871,10 @@
         <v>-10.493</v>
       </c>
       <c r="R182" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S182" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T182" s="2" t="n">
         <v>0</v>
@@ -11894,10 +11894,10 @@
         <v>-0.3</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E183" s="2" t="n">
         <v>0</v>
@@ -11909,10 +11909,10 @@
         <v>-2.824</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J183" s="2" t="n">
         <v>0</v>
@@ -11924,10 +11924,10 @@
         <v>-2.824</v>
       </c>
       <c r="M183" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N183" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O183" s="2" t="n">
         <v>0</v>
@@ -11939,10 +11939,10 @@
         <v>-9.811</v>
       </c>
       <c r="R183" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S183" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T183" s="2" t="n">
         <v>0</v>
@@ -11962,10 +11962,10 @@
         <v>-0.3</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E184" s="2" t="n">
         <v>0</v>
@@ -12002,10 +12002,10 @@
         <v>-9.17</v>
       </c>
       <c r="R184" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S184" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T184" s="2" t="n">
         <v>0</v>
@@ -12025,10 +12025,10 @@
         <v>-0.3</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>-8.644</v>
       </c>
       <c r="R185" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S185" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T185" s="2" t="n">
         <v>0</v>
@@ -12088,10 +12088,10 @@
         <v>-0.3</v>
       </c>
       <c r="C186" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>0</v>
@@ -12128,10 +12128,10 @@
         <v>-7.857</v>
       </c>
       <c r="R186" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S186" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T186" s="2" t="n">
         <v>0</v>
@@ -12151,10 +12151,10 @@
         <v>-0.3</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>0</v>
@@ -12191,10 +12191,10 @@
         <v>-6.888</v>
       </c>
       <c r="R187" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S187" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T187" s="2" t="n">
         <v>0</v>
@@ -12214,10 +12214,10 @@
         <v>-0.3</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>0</v>
@@ -12254,10 +12254,10 @@
         <v>-5.892</v>
       </c>
       <c r="R188" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S188" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T188" s="2" t="n">
         <v>0</v>
@@ -12277,10 +12277,10 @@
         <v>-0.3</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E189" s="2" t="n">
         <v>0</v>
@@ -12317,10 +12317,10 @@
         <v>-4.905</v>
       </c>
       <c r="R189" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S189" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T189" s="2" t="n">
         <v>0</v>
@@ -12340,10 +12340,10 @@
         <v>-0.3</v>
       </c>
       <c r="C190" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E190" s="2" t="n">
         <v>0</v>
@@ -12380,10 +12380,10 @@
         <v>-4.146</v>
       </c>
       <c r="R190" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S190" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T190" s="2" t="n">
         <v>0</v>
@@ -13873,10 +13873,10 @@
         <v>-0.3</v>
       </c>
       <c r="C215" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E215" s="2" t="n">
         <v>0</v>
@@ -13913,10 +13913,10 @@
         <v>-2.761</v>
       </c>
       <c r="R215" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S215" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="T215" s="2" t="n">
         <v>0</v>
@@ -13936,10 +13936,10 @@
         <v>-0.3</v>
       </c>
       <c r="C216" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E216" s="2" t="n">
         <v>0</v>
@@ -13976,10 +13976,10 @@
         <v>-3.359</v>
       </c>
       <c r="R216" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S216" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T216" s="2" t="n">
         <v>0</v>
@@ -13999,10 +13999,10 @@
         <v>-0.3</v>
       </c>
       <c r="C217" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E217" s="2" t="n">
         <v>0</v>
@@ -14039,10 +14039,10 @@
         <v>-4.285</v>
       </c>
       <c r="R217" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S217" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T217" s="2" t="n">
         <v>0</v>
@@ -14062,10 +14062,10 @@
         <v>-0.3</v>
       </c>
       <c r="C218" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E218" s="2" t="n">
         <v>0</v>
@@ -14077,10 +14077,10 @@
         <v>-2.315</v>
       </c>
       <c r="H218" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I218" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J218" s="2" t="n">
         <v>0</v>
@@ -14092,10 +14092,10 @@
         <v>-2.315</v>
       </c>
       <c r="M218" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N218" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O218" s="2" t="n">
         <v>0</v>
@@ -14107,10 +14107,10 @@
         <v>-5.644</v>
       </c>
       <c r="R218" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S218" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T218" s="2" t="n">
         <v>0</v>
@@ -14130,10 +14130,10 @@
         <v>-0.3</v>
       </c>
       <c r="C219" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E219" s="2" t="n">
         <v>0</v>
@@ -14145,10 +14145,10 @@
         <v>-4.206</v>
       </c>
       <c r="H219" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I219" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J219" s="2" t="n">
         <v>0</v>
@@ -14160,10 +14160,10 @@
         <v>-4.206</v>
       </c>
       <c r="M219" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N219" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O219" s="2" t="n">
         <v>0</v>
@@ -14175,10 +14175,10 @@
         <v>-7.515</v>
       </c>
       <c r="R219" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S219" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="T219" s="2" t="n">
         <v>0</v>
@@ -14470,10 +14470,10 @@
         <v>-0.3</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E224" s="2" t="n">
         <v>0</v>
@@ -14485,10 +14485,10 @@
         <v>-10.766</v>
       </c>
       <c r="H224" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I224" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J224" s="2" t="n">
         <v>0</v>
@@ -14500,10 +14500,10 @@
         <v>-10.766</v>
       </c>
       <c r="M224" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N224" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O224" s="2" t="n">
         <v>0</v>
@@ -14515,10 +14515,10 @@
         <v>-14.023</v>
       </c>
       <c r="R224" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S224" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T224" s="2" t="n">
         <v>0</v>
@@ -14538,10 +14538,10 @@
         <v>-0.3</v>
       </c>
       <c r="C225" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E225" s="2" t="n">
         <v>0</v>
@@ -14553,10 +14553,10 @@
         <v>-11.007</v>
       </c>
       <c r="H225" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I225" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J225" s="2" t="n">
         <v>0</v>
@@ -14568,10 +14568,10 @@
         <v>-11.007</v>
       </c>
       <c r="M225" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="N225" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O225" s="2" t="n">
         <v>0</v>
@@ -14583,10 +14583,10 @@
         <v>-14.317</v>
       </c>
       <c r="R225" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="S225" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T225" s="2" t="n">
         <v>0</v>
@@ -14606,10 +14606,10 @@
         <v>-0.3</v>
       </c>
       <c r="C226" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E226" s="2" t="n">
         <v>0</v>
@@ -14621,10 +14621,10 @@
         <v>-11.092</v>
       </c>
       <c r="H226" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I226" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J226" s="2" t="n">
         <v>0</v>
@@ -14636,10 +14636,10 @@
         <v>-11.092</v>
       </c>
       <c r="M226" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="N226" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O226" s="2" t="n">
         <v>0</v>
@@ -14651,10 +14651,10 @@
         <v>-14.44</v>
       </c>
       <c r="R226" s="2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="S226" s="2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="T226" s="2" t="n">
         <v>0</v>
@@ -14674,10 +14674,10 @@
         <v>-0.3</v>
       </c>
       <c r="C227" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E227" s="2" t="n">
         <v>0</v>
@@ -14689,10 +14689,10 @@
         <v>-10.831</v>
       </c>
       <c r="H227" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I227" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J227" s="2" t="n">
         <v>0</v>
@@ -14704,10 +14704,10 @@
         <v>-10.831</v>
       </c>
       <c r="M227" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="N227" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="O227" s="2" t="n">
         <v>0</v>
@@ -14719,10 +14719,10 @@
         <v>-14.2</v>
       </c>
       <c r="R227" s="2" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="S227" s="2" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="T227" s="2" t="n">
         <v>0</v>
@@ -14742,10 +14742,10 @@
         <v>-0.3</v>
       </c>
       <c r="C228" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E228" s="2" t="n">
         <v>0</v>
@@ -14757,10 +14757,10 @@
         <v>-10.166</v>
       </c>
       <c r="H228" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I228" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J228" s="2" t="n">
         <v>0</v>
@@ -14772,10 +14772,10 @@
         <v>-10.166</v>
       </c>
       <c r="M228" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="N228" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="O228" s="2" t="n">
         <v>0</v>
@@ -14787,10 +14787,10 @@
         <v>-13.518</v>
       </c>
       <c r="R228" s="2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="S228" s="2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="T228" s="2" t="n">
         <v>0</v>
@@ -14810,10 +14810,10 @@
         <v>-0.3</v>
       </c>
       <c r="C229" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E229" s="2" t="n">
         <v>0</v>
@@ -14825,10 +14825,10 @@
         <v>-9.205</v>
       </c>
       <c r="H229" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I229" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J229" s="2" t="n">
         <v>0</v>
@@ -14840,10 +14840,10 @@
         <v>-9.205</v>
       </c>
       <c r="M229" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="N229" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O229" s="2" t="n">
         <v>0</v>
@@ -14855,10 +14855,10 @@
         <v>-12.504</v>
       </c>
       <c r="R229" s="2" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="S229" s="2" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="T229" s="2" t="n">
         <v>0</v>
@@ -14878,10 +14878,10 @@
         <v>-0.3</v>
       </c>
       <c r="C230" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E230" s="2" t="n">
         <v>0</v>
@@ -14893,10 +14893,10 @@
         <v>-8.19</v>
       </c>
       <c r="H230" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I230" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J230" s="2" t="n">
         <v>0</v>
@@ -14908,10 +14908,10 @@
         <v>-8.19</v>
       </c>
       <c r="M230" s="2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="N230" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O230" s="2" t="n">
         <v>0</v>
@@ -14923,10 +14923,10 @@
         <v>-11.646</v>
       </c>
       <c r="R230" s="2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="S230" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T230" s="2" t="n">
         <v>0</v>
@@ -14946,10 +14946,10 @@
         <v>-0.3</v>
       </c>
       <c r="C231" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E231" s="2" t="n">
         <v>0</v>
@@ -14961,10 +14961,10 @@
         <v>-7.184</v>
       </c>
       <c r="H231" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I231" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J231" s="2" t="n">
         <v>0</v>
@@ -14976,10 +14976,10 @@
         <v>-7.184</v>
       </c>
       <c r="M231" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="N231" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O231" s="2" t="n">
         <v>0</v>
@@ -14991,10 +14991,10 @@
         <v>-10.707</v>
       </c>
       <c r="R231" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S231" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T231" s="2" t="n">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>-6.652</v>
       </c>
       <c r="M232" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="N232" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O232" s="2" t="n">
         <v>0</v>
@@ -15059,10 +15059,10 @@
         <v>-10.187</v>
       </c>
       <c r="R232" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="S232" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T232" s="2" t="n">
         <v>0</v>
@@ -15112,10 +15112,10 @@
         <v>-6.536</v>
       </c>
       <c r="M233" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="N233" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O233" s="2" t="n">
         <v>0</v>
@@ -15127,10 +15127,10 @@
         <v>-10.032</v>
       </c>
       <c r="R233" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="S233" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="T233" s="2" t="n">
         <v>0</v>
@@ -15150,10 +15150,10 @@
         <v>-0.3</v>
       </c>
       <c r="C234" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E234" s="2" t="n">
         <v>0</v>
@@ -15165,10 +15165,10 @@
         <v>-6.473</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I234" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J234" s="2" t="n">
         <v>0</v>
@@ -15180,10 +15180,10 @@
         <v>-6.473</v>
       </c>
       <c r="M234" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="N234" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O234" s="2" t="n">
         <v>0</v>
@@ -15195,10 +15195,10 @@
         <v>-9.977</v>
       </c>
       <c r="R234" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S234" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T234" s="2" t="n">
         <v>0</v>
@@ -15218,10 +15218,10 @@
         <v>-0.3</v>
       </c>
       <c r="C235" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E235" s="2" t="n">
         <v>0</v>
@@ -15233,10 +15233,10 @@
         <v>-6.598</v>
       </c>
       <c r="H235" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I235" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J235" s="2" t="n">
         <v>0</v>
@@ -15248,10 +15248,10 @@
         <v>-6.598</v>
       </c>
       <c r="M235" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N235" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O235" s="2" t="n">
         <v>0</v>
@@ -15263,10 +15263,10 @@
         <v>-10.064</v>
       </c>
       <c r="R235" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S235" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="T235" s="2" t="n">
         <v>0</v>
@@ -15286,10 +15286,10 @@
         <v>-0.3</v>
       </c>
       <c r="C236" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E236" s="2" t="n">
         <v>0</v>
@@ -15301,10 +15301,10 @@
         <v>-6.694</v>
       </c>
       <c r="H236" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I236" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J236" s="2" t="n">
         <v>0</v>
@@ -15316,10 +15316,10 @@
         <v>-6.694</v>
       </c>
       <c r="M236" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N236" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O236" s="2" t="n">
         <v>0</v>
@@ -15331,10 +15331,10 @@
         <v>-10.232</v>
       </c>
       <c r="R236" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S236" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T236" s="2" t="n">
         <v>0</v>
@@ -15354,10 +15354,10 @@
         <v>-0.3</v>
       </c>
       <c r="C237" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E237" s="2" t="n">
         <v>0</v>
@@ -15369,10 +15369,10 @@
         <v>-6.865</v>
       </c>
       <c r="H237" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I237" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J237" s="2" t="n">
         <v>0</v>
@@ -15384,10 +15384,10 @@
         <v>-6.865</v>
       </c>
       <c r="M237" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N237" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O237" s="2" t="n">
         <v>0</v>
@@ -15399,10 +15399,10 @@
         <v>-10.356</v>
       </c>
       <c r="R237" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S237" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T237" s="2" t="n">
         <v>0</v>
@@ -15422,10 +15422,10 @@
         <v>-0.3</v>
       </c>
       <c r="C238" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E238" s="2" t="n">
         <v>0</v>
@@ -15437,10 +15437,10 @@
         <v>-6.433</v>
       </c>
       <c r="H238" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I238" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J238" s="2" t="n">
         <v>0</v>
@@ -15452,10 +15452,10 @@
         <v>-6.433</v>
       </c>
       <c r="M238" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N238" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O238" s="2" t="n">
         <v>0</v>
@@ -15467,10 +15467,10 @@
         <v>-10.083</v>
       </c>
       <c r="R238" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S238" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T238" s="2" t="n">
         <v>0</v>
@@ -15490,10 +15490,10 @@
         <v>-0.3</v>
       </c>
       <c r="C239" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E239" s="2" t="n">
         <v>0</v>
@@ -15505,10 +15505,10 @@
         <v>-5.622</v>
       </c>
       <c r="H239" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I239" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J239" s="2" t="n">
         <v>0</v>
@@ -15520,10 +15520,10 @@
         <v>-5.622</v>
       </c>
       <c r="M239" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N239" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O239" s="2" t="n">
         <v>0</v>
@@ -15535,10 +15535,10 @@
         <v>-9.234</v>
       </c>
       <c r="R239" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S239" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T239" s="2" t="n">
         <v>0</v>
@@ -15558,10 +15558,10 @@
         <v>-0.3</v>
       </c>
       <c r="C240" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E240" s="2" t="n">
         <v>0</v>
@@ -15573,10 +15573,10 @@
         <v>-4.904</v>
       </c>
       <c r="H240" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I240" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J240" s="2" t="n">
         <v>0</v>
@@ -15588,10 +15588,10 @@
         <v>-4.904</v>
       </c>
       <c r="M240" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N240" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O240" s="2" t="n">
         <v>0</v>
@@ -15603,10 +15603,10 @@
         <v>-8.564</v>
       </c>
       <c r="R240" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S240" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T240" s="2" t="n">
         <v>0</v>
@@ -15626,10 +15626,10 @@
         <v>-0.3</v>
       </c>
       <c r="C241" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E241" s="2" t="n">
         <v>0</v>
@@ -15641,10 +15641,10 @@
         <v>-4.102</v>
       </c>
       <c r="H241" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I241" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J241" s="2" t="n">
         <v>0</v>
@@ -15656,10 +15656,10 @@
         <v>-4.102</v>
       </c>
       <c r="M241" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N241" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O241" s="2" t="n">
         <v>0</v>
@@ -15671,10 +15671,10 @@
         <v>-7.913</v>
       </c>
       <c r="R241" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S241" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T241" s="2" t="n">
         <v>0</v>
@@ -15694,10 +15694,10 @@
         <v>-0.3</v>
       </c>
       <c r="C242" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E242" s="2" t="n">
         <v>0</v>
@@ -15709,10 +15709,10 @@
         <v>-3.709</v>
       </c>
       <c r="H242" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I242" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J242" s="2" t="n">
         <v>0</v>
@@ -15724,10 +15724,10 @@
         <v>-3.709</v>
       </c>
       <c r="M242" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N242" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O242" s="2" t="n">
         <v>0</v>
@@ -15739,10 +15739,10 @@
         <v>-7.59</v>
       </c>
       <c r="R242" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S242" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T242" s="2" t="n">
         <v>0</v>
@@ -15762,10 +15762,10 @@
         <v>-0.3</v>
       </c>
       <c r="C243" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E243" s="2" t="n">
         <v>0</v>
@@ -15777,10 +15777,10 @@
         <v>-3.488</v>
       </c>
       <c r="H243" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I243" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J243" s="2" t="n">
         <v>0</v>
@@ -15792,10 +15792,10 @@
         <v>-3.488</v>
       </c>
       <c r="M243" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N243" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O243" s="2" t="n">
         <v>0</v>
@@ -15807,10 +15807,10 @@
         <v>-7.284</v>
       </c>
       <c r="R243" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S243" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T243" s="2" t="n">
         <v>0</v>
@@ -15830,10 +15830,10 @@
         <v>-0.3</v>
       </c>
       <c r="C244" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E244" s="2" t="n">
         <v>0</v>
@@ -15845,10 +15845,10 @@
         <v>-3.388</v>
       </c>
       <c r="H244" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I244" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J244" s="2" t="n">
         <v>0</v>
@@ -15860,10 +15860,10 @@
         <v>-3.388</v>
       </c>
       <c r="M244" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N244" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O244" s="2" t="n">
         <v>0</v>
@@ -15875,10 +15875,10 @@
         <v>-7.389</v>
       </c>
       <c r="R244" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S244" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T244" s="2" t="n">
         <v>0</v>
@@ -16200,10 +16200,10 @@
         <v>-3.146</v>
       </c>
       <c r="M249" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N249" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O249" s="2" t="n">
         <v>0</v>
@@ -16215,10 +16215,10 @@
         <v>-6.912</v>
       </c>
       <c r="R249" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S249" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T249" s="2" t="n">
         <v>0</v>
@@ -16238,10 +16238,10 @@
         <v>-0.3</v>
       </c>
       <c r="C250" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E250" s="2" t="n">
         <v>0</v>
@@ -16253,10 +16253,10 @@
         <v>-3.123</v>
       </c>
       <c r="H250" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I250" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J250" s="2" t="n">
         <v>0</v>
@@ -16268,10 +16268,10 @@
         <v>-3.123</v>
       </c>
       <c r="M250" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N250" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O250" s="2" t="n">
         <v>0</v>
@@ -16283,10 +16283,10 @@
         <v>-6.875</v>
       </c>
       <c r="R250" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S250" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T250" s="2" t="n">
         <v>0</v>
@@ -16336,10 +16336,10 @@
         <v>-3.3</v>
       </c>
       <c r="M251" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N251" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O251" s="2" t="n">
         <v>0</v>
@@ -16351,10 +16351,10 @@
         <v>-7.063</v>
       </c>
       <c r="R251" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S251" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T251" s="2" t="n">
         <v>0</v>
@@ -17394,10 +17394,10 @@
         <v>-0.3</v>
       </c>
       <c r="C267" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E267" s="2" t="n">
         <v>0</v>
@@ -17409,10 +17409,10 @@
         <v>-6.557</v>
       </c>
       <c r="H267" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I267" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J267" s="2" t="n">
         <v>0</v>
@@ -17424,10 +17424,10 @@
         <v>-6.557</v>
       </c>
       <c r="M267" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N267" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O267" s="2" t="n">
         <v>0</v>
@@ -17439,10 +17439,10 @@
         <v>-10.352</v>
       </c>
       <c r="R267" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S267" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T267" s="2" t="n">
         <v>0</v>
@@ -18006,10 +18006,10 @@
         <v>-0.3</v>
       </c>
       <c r="C276" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E276" s="2" t="n">
         <v>0</v>
@@ -18046,10 +18046,10 @@
         <v>-5.91</v>
       </c>
       <c r="R276" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S276" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="T276" s="2" t="n">
         <v>0</v>
@@ -19132,10 +19132,10 @@
         <v>-0.3</v>
       </c>
       <c r="C294" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E294" s="2" t="n">
         <v>0</v>
@@ -19172,10 +19172,10 @@
         <v>-2.517</v>
       </c>
       <c r="R294" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S294" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="T294" s="2" t="n">
         <v>0</v>
@@ -29385,10 +29385,10 @@
         <v>-0.3</v>
       </c>
       <c r="C461" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D461" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E461" s="2" t="n">
         <v>0</v>
@@ -29425,10 +29425,10 @@
         <v>-8.349</v>
       </c>
       <c r="R461" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S461" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T461" s="2" t="n">
         <v>0</v>
@@ -29574,10 +29574,10 @@
         <v>-0.3</v>
       </c>
       <c r="C464" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D464" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E464" s="2" t="n">
         <v>0</v>
@@ -29614,10 +29614,10 @@
         <v>-8.916</v>
       </c>
       <c r="R464" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S464" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="T464" s="2" t="n">
         <v>0</v>
@@ -29637,10 +29637,10 @@
         <v>-0.3</v>
       </c>
       <c r="C465" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D465" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E465" s="2" t="n">
         <v>0</v>
@@ -29677,10 +29677,10 @@
         <v>-8.991</v>
       </c>
       <c r="R465" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S465" s="2" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="T465" s="2" t="n">
         <v>0</v>
@@ -29866,10 +29866,10 @@
         <v>-2.768</v>
       </c>
       <c r="M468" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N468" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O468" s="2" t="n">
         <v>0</v>
@@ -29881,10 +29881,10 @@
         <v>-9.414999999999999</v>
       </c>
       <c r="R468" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S468" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T468" s="2" t="n">
         <v>0</v>
@@ -29904,10 +29904,10 @@
         <v>-0.3</v>
       </c>
       <c r="C469" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D469" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E469" s="2" t="n">
         <v>0</v>
@@ -29919,10 +29919,10 @@
         <v>-3.104</v>
       </c>
       <c r="H469" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I469" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J469" s="2" t="n">
         <v>0</v>
@@ -29934,10 +29934,10 @@
         <v>-3.104</v>
       </c>
       <c r="M469" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N469" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O469" s="2" t="n">
         <v>0</v>
@@ -29949,10 +29949,10 @@
         <v>-9.819000000000001</v>
       </c>
       <c r="R469" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S469" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T469" s="2" t="n">
         <v>0</v>
@@ -29972,10 +29972,10 @@
         <v>-0.3</v>
       </c>
       <c r="C470" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D470" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E470" s="2" t="n">
         <v>0</v>
@@ -29987,10 +29987,10 @@
         <v>-3.425</v>
       </c>
       <c r="H470" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I470" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J470" s="2" t="n">
         <v>0</v>
@@ -30002,10 +30002,10 @@
         <v>-3.425</v>
       </c>
       <c r="M470" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N470" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O470" s="2" t="n">
         <v>0</v>
@@ -30017,10 +30017,10 @@
         <v>-10.177</v>
       </c>
       <c r="R470" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S470" s="2" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="T470" s="2" t="n">
         <v>0</v>
@@ -30108,10 +30108,10 @@
         <v>-0.3</v>
       </c>
       <c r="C472" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D472" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E472" s="2" t="n">
         <v>0</v>
@@ -30123,10 +30123,10 @@
         <v>-3.89</v>
       </c>
       <c r="H472" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I472" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J472" s="2" t="n">
         <v>0</v>
@@ -30138,10 +30138,10 @@
         <v>-3.89</v>
       </c>
       <c r="M472" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N472" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O472" s="2" t="n">
         <v>0</v>
@@ -30153,10 +30153,10 @@
         <v>-10.655</v>
       </c>
       <c r="R472" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S472" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T472" s="2" t="n">
         <v>0</v>
@@ -30312,10 +30312,10 @@
         <v>-0.3</v>
       </c>
       <c r="C475" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D475" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E475" s="2" t="n">
         <v>0</v>
@@ -30327,10 +30327,10 @@
         <v>-4.582</v>
       </c>
       <c r="H475" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I475" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J475" s="2" t="n">
         <v>0</v>
@@ -30342,10 +30342,10 @@
         <v>-4.582</v>
       </c>
       <c r="M475" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N475" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O475" s="2" t="n">
         <v>0</v>
@@ -30357,10 +30357,10 @@
         <v>-11.31</v>
       </c>
       <c r="R475" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S475" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T475" s="2" t="n">
         <v>0</v>
@@ -30410,10 +30410,10 @@
         <v>-4.659</v>
       </c>
       <c r="M476" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N476" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O476" s="2" t="n">
         <v>0</v>
@@ -30425,10 +30425,10 @@
         <v>-11.467</v>
       </c>
       <c r="R476" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S476" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T476" s="2" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>-0.3</v>
       </c>
       <c r="C479" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D479" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E479" s="2" t="n">
         <v>0</v>
@@ -30599,10 +30599,10 @@
         <v>-4.91</v>
       </c>
       <c r="H479" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I479" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J479" s="2" t="n">
         <v>0</v>
@@ -30614,10 +30614,10 @@
         <v>-4.91</v>
       </c>
       <c r="M479" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N479" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O479" s="2" t="n">
         <v>0</v>
@@ -30629,10 +30629,10 @@
         <v>-11.668</v>
       </c>
       <c r="R479" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S479" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T479" s="2" t="n">
         <v>0</v>
@@ -30682,10 +30682,10 @@
         <v>-4.944</v>
       </c>
       <c r="M480" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N480" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O480" s="2" t="n">
         <v>0</v>
@@ -30697,10 +30697,10 @@
         <v>-11.646</v>
       </c>
       <c r="R480" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="S480" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T480" s="2" t="n">
         <v>0</v>
@@ -30720,10 +30720,10 @@
         <v>-0.3</v>
       </c>
       <c r="C481" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D481" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E481" s="2" t="n">
         <v>0</v>
@@ -30735,10 +30735,10 @@
         <v>-4.907</v>
       </c>
       <c r="H481" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I481" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J481" s="2" t="n">
         <v>0</v>
@@ -30750,10 +30750,10 @@
         <v>-4.907</v>
       </c>
       <c r="M481" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N481" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O481" s="2" t="n">
         <v>0</v>
@@ -30765,10 +30765,10 @@
         <v>-11.606</v>
       </c>
       <c r="R481" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S481" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T481" s="2" t="n">
         <v>0</v>
@@ -30788,10 +30788,10 @@
         <v>-0.3</v>
       </c>
       <c r="C482" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D482" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E482" s="2" t="n">
         <v>0</v>
@@ -30803,10 +30803,10 @@
         <v>-4.838</v>
       </c>
       <c r="H482" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I482" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J482" s="2" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>-4.838</v>
       </c>
       <c r="M482" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="N482" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O482" s="2" t="n">
         <v>0</v>
@@ -30833,10 +30833,10 @@
         <v>-11.598</v>
       </c>
       <c r="R482" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S482" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T482" s="2" t="n">
         <v>0</v>
@@ -30886,10 +30886,10 @@
         <v>-4.591</v>
       </c>
       <c r="M483" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="N483" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O483" s="2" t="n">
         <v>0</v>
@@ -30901,10 +30901,10 @@
         <v>-11.478</v>
       </c>
       <c r="R483" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="S483" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T483" s="2" t="n">
         <v>0</v>
@@ -31468,10 +31468,10 @@
         <v>-0.3</v>
       </c>
       <c r="C492" s="2" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="D492" s="2" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="E492" s="2" t="n">
         <v>0</v>
@@ -31483,10 +31483,10 @@
         <v>-5.217</v>
       </c>
       <c r="H492" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I492" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J492" s="2" t="n">
         <v>0</v>
@@ -31498,10 +31498,10 @@
         <v>-5.217</v>
       </c>
       <c r="M492" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N492" s="2" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="O492" s="2" t="n">
         <v>0</v>
@@ -31513,10 +31513,10 @@
         <v>-12.015</v>
       </c>
       <c r="R492" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S492" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T492" s="2" t="n">
         <v>0</v>
@@ -31536,10 +31536,10 @@
         <v>-0.3</v>
       </c>
       <c r="C493" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="D493" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E493" s="2" t="n">
         <v>0</v>
@@ -31551,10 +31551,10 @@
         <v>-5.197</v>
       </c>
       <c r="H493" s="2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I493" s="2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="J493" s="2" t="n">
         <v>0</v>
@@ -31566,10 +31566,10 @@
         <v>-5.197</v>
       </c>
       <c r="M493" s="2" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="N493" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="O493" s="2" t="n">
         <v>0</v>
@@ -31581,10 +31581,10 @@
         <v>-12.024</v>
       </c>
       <c r="R493" s="2" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="S493" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="T493" s="2" t="n">
         <v>0</v>
@@ -31604,10 +31604,10 @@
         <v>-0.3</v>
       </c>
       <c r="C494" s="2" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="D494" s="2" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="E494" s="2" t="n">
         <v>0</v>
@@ -31619,10 +31619,10 @@
         <v>-5.221</v>
       </c>
       <c r="H494" s="2" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I494" s="2" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="J494" s="2" t="n">
         <v>0</v>
@@ -31634,10 +31634,10 @@
         <v>-5.221</v>
       </c>
       <c r="M494" s="2" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="N494" s="2" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="O494" s="2" t="n">
         <v>0</v>
@@ -31649,10 +31649,10 @@
         <v>-12.004</v>
       </c>
       <c r="R494" s="2" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="S494" s="2" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="T494" s="2" t="n">
         <v>0</v>
@@ -31672,10 +31672,10 @@
         <v>-0.3</v>
       </c>
       <c r="C495" s="2" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="D495" s="2" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="E495" s="2" t="n">
         <v>0</v>
@@ -31687,10 +31687,10 @@
         <v>-5.159</v>
       </c>
       <c r="H495" s="2" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="I495" s="2" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="J495" s="2" t="n">
         <v>0</v>
@@ -31702,13 +31702,13 @@
         <v>-5.159</v>
       </c>
       <c r="M495" s="2" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="N495" s="2" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="O495" s="2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P495" s="2" t="n">
         <v>0</v>
@@ -31717,13 +31717,13 @@
         <v>-11.984</v>
       </c>
       <c r="R495" s="2" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="S495" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="T495" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="U495" s="2" t="n">
         <v>0</v>
@@ -31740,10 +31740,10 @@
         <v>-0.3</v>
       </c>
       <c r="C496" s="2" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="D496" s="2" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="E496" s="2" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>-5.114</v>
       </c>
       <c r="H496" s="2" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="I496" s="2" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="J496" s="2" t="n">
         <v>0</v>
@@ -31770,13 +31770,13 @@
         <v>-5.114</v>
       </c>
       <c r="M496" s="2" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="N496" s="2" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="O496" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P496" s="2" t="n">
         <v>0</v>
@@ -31785,13 +31785,13 @@
         <v>-11.935</v>
       </c>
       <c r="R496" s="2" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="S496" s="2" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="T496" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U496" s="2" t="n">
         <v>0</v>
@@ -31808,10 +31808,10 @@
         <v>-0.3</v>
       </c>
       <c r="C497" s="2" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="D497" s="2" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="E497" s="2" t="n">
         <v>0</v>
@@ -31823,10 +31823,10 @@
         <v>-5.078</v>
       </c>
       <c r="H497" s="2" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="I497" s="2" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="J497" s="2" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>-5.078</v>
       </c>
       <c r="M497" s="2" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="N497" s="2" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="O497" s="2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P497" s="2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q497" s="3" t="n">
         <v>-11.886</v>
       </c>
       <c r="R497" s="2" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="S497" s="2" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="T497" s="2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="U497" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="V497" s="3" t="n">
         <v>-0.025</v>
@@ -31876,13 +31876,13 @@
         <v>-0.3</v>
       </c>
       <c r="C498" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D498" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E498" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F498" s="2" t="n">
         <v>0</v>
@@ -31891,13 +31891,13 @@
         <v>-5.063</v>
       </c>
       <c r="H498" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I498" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J498" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K498" s="2" t="n">
         <v>0</v>
@@ -31906,13 +31906,13 @@
         <v>-5.063</v>
       </c>
       <c r="M498" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N498" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O498" s="2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P498" s="2" t="n">
         <v>0</v>
@@ -31921,13 +31921,13 @@
         <v>-11.947</v>
       </c>
       <c r="R498" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S498" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T498" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="U498" s="2" t="n">
         <v>0</v>
@@ -31950,10 +31950,10 @@
         <v>0.21</v>
       </c>
       <c r="E499" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F499" s="2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G499" s="3" t="n">
         <v>-5.088</v>
@@ -31965,22 +31965,22 @@
         <v>0.21</v>
       </c>
       <c r="J499" s="2" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="K499" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L499" s="2" t="n">
         <v>-5.088</v>
       </c>
       <c r="M499" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="N499" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="O499" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P499" s="2" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>-11.96</v>
       </c>
       <c r="R499" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="S499" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="T499" s="2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="U499" s="2" t="n">
         <v>0</v>
@@ -32018,10 +32018,10 @@
         <v>0.21</v>
       </c>
       <c r="E500" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F500" s="2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G500" s="3" t="n">
         <v>-5.187</v>
@@ -32033,22 +32033,22 @@
         <v>0.21</v>
       </c>
       <c r="J500" s="2" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="K500" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L500" s="2" t="n">
         <v>-5.187</v>
       </c>
       <c r="M500" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="N500" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="O500" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P500" s="2" t="n">
         <v>0</v>
@@ -32057,13 +32057,13 @@
         <v>-12.125</v>
       </c>
       <c r="R500" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="S500" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="T500" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="U500" s="2" t="n">
         <v>0</v>
@@ -32080,13 +32080,13 @@
         <v>-0.3</v>
       </c>
       <c r="C501" s="2" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="E501" s="2" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F501" s="2" t="n">
         <v>0</v>
@@ -32101,7 +32101,7 @@
         <v>0.29</v>
       </c>
       <c r="J501" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K501" s="2" t="n">
         <v>0</v>
@@ -32110,13 +32110,13 @@
         <v>-5.357</v>
       </c>
       <c r="M501" s="2" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="N501" s="2" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="O501" s="2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P501" s="2" t="n">
         <v>0</v>
@@ -32125,13 +32125,13 @@
         <v>-12.301</v>
       </c>
       <c r="R501" s="2" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="S501" s="2" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="T501" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="U501" s="2" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>-0.3</v>
       </c>
       <c r="C502" s="2" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="D502" s="2" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="E502" s="2" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F502" s="2" t="n">
         <v>0</v>
@@ -32169,7 +32169,7 @@
         <v>0.28</v>
       </c>
       <c r="J502" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K502" s="2" t="n">
         <v>0</v>
@@ -32178,10 +32178,10 @@
         <v>-5.533</v>
       </c>
       <c r="M502" s="2" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="N502" s="2" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="O502" s="2" t="n">
         <v>0</v>
@@ -32193,10 +32193,10 @@
         <v>-12.507</v>
       </c>
       <c r="R502" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="S502" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="T502" s="2" t="n">
         <v>0</v>
@@ -32216,10 +32216,10 @@
         <v>-0.3</v>
       </c>
       <c r="C503" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="D503" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="E503" s="2" t="n">
         <v>0</v>
@@ -32231,10 +32231,10 @@
         <v>-5.774</v>
       </c>
       <c r="H503" s="2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I503" s="2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J503" s="2" t="n">
         <v>0</v>
@@ -32246,10 +32246,10 @@
         <v>-5.774</v>
       </c>
       <c r="M503" s="2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N503" s="2" t="n">
         <v>0.3</v>
-      </c>
-      <c r="N503" s="2" t="n">
-        <v>0.29</v>
       </c>
       <c r="O503" s="2" t="n">
         <v>0</v>
@@ -32261,10 +32261,10 @@
         <v>-12.784</v>
       </c>
       <c r="R503" s="2" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="S503" s="2" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="T503" s="2" t="n">
         <v>0</v>
@@ -32284,10 +32284,10 @@
         <v>-0.3</v>
       </c>
       <c r="C504" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="D504" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E504" s="2" t="n">
         <v>0</v>
@@ -32299,10 +32299,10 @@
         <v>-5.857</v>
       </c>
       <c r="H504" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I504" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="J504" s="2" t="n">
         <v>0</v>
@@ -32314,10 +32314,10 @@
         <v>-5.857</v>
       </c>
       <c r="M504" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="N504" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="O504" s="2" t="n">
         <v>0</v>
@@ -32329,10 +32329,10 @@
         <v>-12.779</v>
       </c>
       <c r="R504" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="S504" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="T504" s="2" t="n">
         <v>0</v>
@@ -32352,10 +32352,10 @@
         <v>-0.3</v>
       </c>
       <c r="C505" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="D505" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E505" s="2" t="n">
         <v>0</v>
@@ -32367,10 +32367,10 @@
         <v>-5.904</v>
       </c>
       <c r="H505" s="2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I505" s="2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="J505" s="2" t="n">
         <v>0</v>
@@ -32382,10 +32382,10 @@
         <v>-5.904</v>
       </c>
       <c r="M505" s="2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="N505" s="2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="O505" s="2" t="n">
         <v>0</v>
@@ -32397,10 +32397,10 @@
         <v>-12.805</v>
       </c>
       <c r="R505" s="2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="S505" s="2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="T505" s="2" t="n">
         <v>0</v>
@@ -32420,10 +32420,10 @@
         <v>-0.3</v>
       </c>
       <c r="C506" s="2" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="D506" s="2" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E506" s="2" t="n">
         <v>0</v>
@@ -32435,10 +32435,10 @@
         <v>-5.981</v>
       </c>
       <c r="H506" s="2" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I506" s="2" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="J506" s="2" t="n">
         <v>0</v>
@@ -32450,10 +32450,10 @@
         <v>-5.981</v>
       </c>
       <c r="M506" s="2" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="N506" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="O506" s="2" t="n">
         <v>0</v>
@@ -32465,10 +32465,10 @@
         <v>-12.864</v>
       </c>
       <c r="R506" s="2" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="S506" s="2" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="T506" s="2" t="n">
         <v>0</v>
@@ -32488,10 +32488,10 @@
         <v>-0.3</v>
       </c>
       <c r="C507" s="2" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="D507" s="2" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="E507" s="2" t="n">
         <v>0</v>
@@ -32503,10 +32503,10 @@
         <v>-5.857</v>
       </c>
       <c r="H507" s="2" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="I507" s="2" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="J507" s="2" t="n">
         <v>0</v>
@@ -32518,10 +32518,10 @@
         <v>-5.857</v>
       </c>
       <c r="M507" s="2" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="N507" s="2" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="O507" s="2" t="n">
         <v>0</v>
@@ -32533,10 +32533,10 @@
         <v>-12.727</v>
       </c>
       <c r="R507" s="2" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="S507" s="2" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="T507" s="2" t="n">
         <v>0</v>
@@ -32556,10 +32556,10 @@
         <v>-0.3</v>
       </c>
       <c r="C508" s="2" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="D508" s="2" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="E508" s="2" t="n">
         <v>0</v>
@@ -32571,10 +32571,10 @@
         <v>-5.566</v>
       </c>
       <c r="H508" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I508" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J508" s="2" t="n">
         <v>0</v>
@@ -32586,10 +32586,10 @@
         <v>-5.566</v>
       </c>
       <c r="M508" s="2" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="N508" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O508" s="2" t="n">
         <v>0</v>
@@ -32601,10 +32601,10 @@
         <v>-12.448</v>
       </c>
       <c r="R508" s="2" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S508" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="T508" s="2" t="n">
         <v>0</v>
@@ -32624,10 +32624,10 @@
         <v>-0.3</v>
       </c>
       <c r="C509" s="2" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="D509" s="2" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E509" s="2" t="n">
         <v>0</v>
@@ -32639,10 +32639,10 @@
         <v>-5.221</v>
       </c>
       <c r="H509" s="2" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="I509" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J509" s="2" t="n">
         <v>0</v>
@@ -32654,10 +32654,10 @@
         <v>-5.221</v>
       </c>
       <c r="M509" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N509" s="2" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="O509" s="2" t="n">
         <v>0</v>
@@ -32669,10 +32669,10 @@
         <v>-12.118</v>
       </c>
       <c r="R509" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S509" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T509" s="2" t="n">
         <v>0</v>
@@ -32692,10 +32692,10 @@
         <v>-0.3</v>
       </c>
       <c r="C510" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D510" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E510" s="2" t="n">
         <v>0</v>
@@ -32707,10 +32707,10 @@
         <v>-4.862</v>
       </c>
       <c r="H510" s="2" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I510" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J510" s="2" t="n">
         <v>0</v>
@@ -32722,10 +32722,10 @@
         <v>-4.862</v>
       </c>
       <c r="M510" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N510" s="2" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="O510" s="2" t="n">
         <v>0</v>
@@ -32737,10 +32737,10 @@
         <v>-11.663</v>
       </c>
       <c r="R510" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S510" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T510" s="2" t="n">
         <v>0</v>
@@ -32760,10 +32760,10 @@
         <v>-0.3</v>
       </c>
       <c r="C511" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D511" s="2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E511" s="2" t="n">
         <v>0</v>
@@ -32775,10 +32775,10 @@
         <v>-4.666</v>
       </c>
       <c r="H511" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I511" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J511" s="2" t="n">
         <v>0</v>
@@ -32790,10 +32790,10 @@
         <v>-4.666</v>
       </c>
       <c r="M511" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N511" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O511" s="2" t="n">
         <v>0</v>
@@ -32805,10 +32805,10 @@
         <v>-11.551</v>
       </c>
       <c r="R511" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S511" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T511" s="2" t="n">
         <v>0</v>
@@ -32828,10 +32828,10 @@
         <v>-0.3</v>
       </c>
       <c r="C512" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D512" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E512" s="2" t="n">
         <v>0</v>
@@ -32843,10 +32843,10 @@
         <v>-4.571</v>
       </c>
       <c r="H512" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="I512" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J512" s="2" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>-4.571</v>
       </c>
       <c r="M512" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N512" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="O512" s="2" t="n">
         <v>0</v>
@@ -32873,10 +32873,10 @@
         <v>-11.467</v>
       </c>
       <c r="R512" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S512" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T512" s="2" t="n">
         <v>0</v>
@@ -32896,10 +32896,10 @@
         <v>-0.3</v>
       </c>
       <c r="C513" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D513" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E513" s="2" t="n">
         <v>0</v>
@@ -32911,10 +32911,10 @@
         <v>-4.512</v>
       </c>
       <c r="H513" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I513" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J513" s="2" t="n">
         <v>0</v>
@@ -32926,10 +32926,10 @@
         <v>-4.512</v>
       </c>
       <c r="M513" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="N513" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O513" s="2" t="n">
         <v>0</v>
@@ -32941,10 +32941,10 @@
         <v>-11.402</v>
       </c>
       <c r="R513" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S513" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="T513" s="2" t="n">
         <v>0</v>
@@ -32964,10 +32964,10 @@
         <v>-0.3</v>
       </c>
       <c r="C514" s="2" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="D514" s="2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="E514" s="2" t="n">
         <v>0</v>
@@ -32979,10 +32979,10 @@
         <v>-4.393</v>
       </c>
       <c r="H514" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I514" s="2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="I514" s="2" t="n">
-        <v>0.17</v>
       </c>
       <c r="J514" s="2" t="n">
         <v>0</v>
@@ -32994,7 +32994,7 @@
         <v>-4.393</v>
       </c>
       <c r="M514" s="2" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="N514" s="2" t="n">
         <v>0.13</v>
@@ -33009,7 +33009,7 @@
         <v>-11.313</v>
       </c>
       <c r="R514" s="2" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="S514" s="2" t="n">
         <v>0.3</v>
@@ -33032,10 +33032,10 @@
         <v>-0.3</v>
       </c>
       <c r="C515" s="2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D515" s="2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E515" s="2" t="n">
         <v>0</v>
@@ -33047,10 +33047,10 @@
         <v>-4.237</v>
       </c>
       <c r="H515" s="2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I515" s="2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="J515" s="2" t="n">
         <v>0</v>
@@ -33062,10 +33062,10 @@
         <v>-4.237</v>
       </c>
       <c r="M515" s="2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="N515" s="2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="O515" s="2" t="n">
         <v>0</v>
@@ -33077,10 +33077,10 @@
         <v>-11.169</v>
       </c>
       <c r="R515" s="2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="S515" s="2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="T515" s="2" t="n">
         <v>0</v>
@@ -33100,10 +33100,10 @@
         <v>-0.3</v>
       </c>
       <c r="C516" s="2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D516" s="2" t="n">
         <v>0.27</v>
-      </c>
-      <c r="D516" s="2" t="n">
-        <v>0.26</v>
       </c>
       <c r="E516" s="2" t="n">
         <v>0</v>
@@ -33115,10 +33115,10 @@
         <v>-4.16</v>
       </c>
       <c r="H516" s="2" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I516" s="2" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J516" s="2" t="n">
         <v>0</v>
@@ -33130,10 +33130,10 @@
         <v>-4.16</v>
       </c>
       <c r="M516" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="N516" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="O516" s="2" t="n">
         <v>0</v>
@@ -33145,10 +33145,10 @@
         <v>-11.078</v>
       </c>
       <c r="R516" s="2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="S516" s="2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="T516" s="2" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0.15</v>
       </c>
       <c r="E517" s="2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F517" s="2" t="n">
         <v>0</v>
@@ -33189,7 +33189,7 @@
         <v>0.15</v>
       </c>
       <c r="J517" s="2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="K517" s="2" t="n">
         <v>0</v>
@@ -33198,7 +33198,7 @@
         <v>-4.027</v>
       </c>
       <c r="M517" s="2" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="N517" s="2" t="n">
         <v>0.15</v>
@@ -33213,10 +33213,10 @@
         <v>-10.92</v>
       </c>
       <c r="R517" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S517" s="2" t="n">
         <v>0.28</v>
-      </c>
-      <c r="S517" s="2" t="n">
-        <v>0.27</v>
       </c>
       <c r="T517" s="2" t="n">
         <v>0</v>
@@ -33236,10 +33236,10 @@
         <v>-0.3</v>
       </c>
       <c r="C518" s="2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="D518" s="2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E518" s="2" t="n">
         <v>0.12</v>
@@ -33251,13 +33251,13 @@
         <v>-3.916</v>
       </c>
       <c r="H518" s="2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I518" s="2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="J518" s="2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="K518" s="2" t="n">
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>-3.916</v>
       </c>
       <c r="M518" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="N518" s="2" t="n">
         <v>0.14</v>
@@ -33281,7 +33281,7 @@
         <v>-10.782</v>
       </c>
       <c r="R518" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="S518" s="2" t="n">
         <v>0.26</v>
@@ -33307,7 +33307,7 @@
         <v>0.21</v>
       </c>
       <c r="D519" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E519" s="2" t="n">
         <v>0</v>
@@ -33322,7 +33322,7 @@
         <v>0.21</v>
       </c>
       <c r="I519" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J519" s="2" t="n">
         <v>0</v>
@@ -33334,7 +33334,7 @@
         <v>-4.131</v>
       </c>
       <c r="M519" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N519" s="2" t="n">
         <v>0.12</v>
@@ -33349,7 +33349,7 @@
         <v>-10.953</v>
       </c>
       <c r="R519" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="S519" s="2" t="n">
         <v>0.25</v>
@@ -33372,7 +33372,7 @@
         <v>-0.3</v>
       </c>
       <c r="C520" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="D520" s="2" t="n">
         <v>0.18</v>
@@ -33387,7 +33387,7 @@
         <v>-4.733</v>
       </c>
       <c r="H520" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I520" s="2" t="n">
         <v>0.23</v>
@@ -33402,10 +33402,10 @@
         <v>-4.733</v>
       </c>
       <c r="M520" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="N520" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="O520" s="2" t="n">
         <v>0</v>
@@ -33440,7 +33440,7 @@
         <v>-0.3</v>
       </c>
       <c r="C521" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D521" s="2" t="n">
         <v>0.15</v>
@@ -33455,7 +33455,7 @@
         <v>-5.234</v>
       </c>
       <c r="H521" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I521" s="2" t="n">
         <v>0.25</v>
@@ -33470,10 +33470,10 @@
         <v>-5.234</v>
       </c>
       <c r="M521" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N521" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="O521" s="2" t="n">
         <v>0</v>
@@ -33485,10 +33485,10 @@
         <v>-12.18</v>
       </c>
       <c r="R521" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="S521" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="T521" s="2" t="n">
         <v>0</v>
@@ -33526,7 +33526,7 @@
         <v>0.27</v>
       </c>
       <c r="I522" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="J522" s="2" t="n">
         <v>0</v>
@@ -33538,10 +33538,10 @@
         <v>-5.555</v>
       </c>
       <c r="M522" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="N522" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O522" s="2" t="n">
         <v>0</v>
@@ -33621,10 +33621,10 @@
         <v>-12.466</v>
       </c>
       <c r="R523" s="2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="S523" s="2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="T523" s="2" t="n">
         <v>0</v>
@@ -34294,10 +34294,10 @@
         <v>-0.3</v>
       </c>
       <c r="C534" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D534" s="2" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E534" s="2" t="n">
         <v>0</v>
@@ -34334,10 +34334,10 @@
         <v>-7.239</v>
       </c>
       <c r="R534" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="S534" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T534" s="2" t="n">
         <v>0</v>
@@ -34546,10 +34546,10 @@
         <v>-0.3</v>
       </c>
       <c r="C538" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D538" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E538" s="2" t="n">
         <v>0</v>
@@ -34586,10 +34586,10 @@
         <v>-7.123</v>
       </c>
       <c r="R538" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S538" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T538" s="2" t="n">
         <v>0</v>
@@ -34861,10 +34861,10 @@
         <v>-0.3</v>
       </c>
       <c r="C543" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D543" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E543" s="2" t="n">
         <v>0</v>
@@ -34901,10 +34901,10 @@
         <v>-6.828</v>
       </c>
       <c r="R543" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S543" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T543" s="2" t="n">
         <v>0</v>
@@ -34924,10 +34924,10 @@
         <v>-0.3</v>
       </c>
       <c r="C544" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D544" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E544" s="2" t="n">
         <v>0</v>
@@ -34964,10 +34964,10 @@
         <v>-6.768</v>
       </c>
       <c r="R544" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S544" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T544" s="2" t="n">
         <v>0</v>
@@ -34987,10 +34987,10 @@
         <v>-0.3</v>
       </c>
       <c r="C545" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D545" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E545" s="2" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>-6.686</v>
       </c>
       <c r="R545" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S545" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T545" s="2" t="n">
         <v>0</v>
@@ -35050,10 +35050,10 @@
         <v>-0.3</v>
       </c>
       <c r="C546" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D546" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E546" s="2" t="n">
         <v>0</v>
@@ -35090,10 +35090,10 @@
         <v>-6.632</v>
       </c>
       <c r="R546" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S546" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T546" s="2" t="n">
         <v>0</v>
@@ -35113,10 +35113,10 @@
         <v>-0.3</v>
       </c>
       <c r="C547" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D547" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E547" s="2" t="n">
         <v>0</v>
@@ -35153,10 +35153,10 @@
         <v>-6.632</v>
       </c>
       <c r="R547" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S547" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T547" s="2" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>-0.3</v>
       </c>
       <c r="C548" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D548" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E548" s="2" t="n">
         <v>0</v>
@@ -35216,10 +35216,10 @@
         <v>-6.624</v>
       </c>
       <c r="R548" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S548" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T548" s="2" t="n">
         <v>0</v>
@@ -35239,10 +35239,10 @@
         <v>-0.3</v>
       </c>
       <c r="C549" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D549" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E549" s="2" t="n">
         <v>0</v>
@@ -35279,10 +35279,10 @@
         <v>-6.615</v>
       </c>
       <c r="R549" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S549" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T549" s="2" t="n">
         <v>0</v>
@@ -35302,10 +35302,10 @@
         <v>-0.3</v>
       </c>
       <c r="C550" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D550" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E550" s="2" t="n">
         <v>0</v>
@@ -35342,10 +35342,10 @@
         <v>-6.603</v>
       </c>
       <c r="R550" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S550" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T550" s="2" t="n">
         <v>0</v>
@@ -35365,10 +35365,10 @@
         <v>-0.3</v>
       </c>
       <c r="C551" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D551" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E551" s="2" t="n">
         <v>0</v>
@@ -35405,10 +35405,10 @@
         <v>-6.588</v>
       </c>
       <c r="R551" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S551" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T551" s="2" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>-0.3</v>
       </c>
       <c r="C552" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D552" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E552" s="2" t="n">
         <v>0</v>
@@ -35468,10 +35468,10 @@
         <v>-6.566</v>
       </c>
       <c r="R552" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S552" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T552" s="2" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>-0.3</v>
       </c>
       <c r="C553" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D553" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E553" s="2" t="n">
         <v>0</v>
@@ -35531,10 +35531,10 @@
         <v>-6.624</v>
       </c>
       <c r="R553" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S553" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T553" s="2" t="n">
         <v>0</v>
@@ -35554,10 +35554,10 @@
         <v>-0.3</v>
       </c>
       <c r="C554" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D554" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E554" s="2" t="n">
         <v>0</v>
@@ -35594,10 +35594,10 @@
         <v>-6.746</v>
       </c>
       <c r="R554" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S554" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T554" s="2" t="n">
         <v>0</v>
@@ -35617,10 +35617,10 @@
         <v>-0.3</v>
       </c>
       <c r="C555" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D555" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E555" s="2" t="n">
         <v>0</v>
@@ -35657,10 +35657,10 @@
         <v>-6.891</v>
       </c>
       <c r="R555" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S555" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T555" s="2" t="n">
         <v>0</v>
@@ -35680,10 +35680,10 @@
         <v>-0.3</v>
       </c>
       <c r="C556" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D556" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E556" s="2" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>-7.062</v>
       </c>
       <c r="R556" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S556" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T556" s="2" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>-0.3</v>
       </c>
       <c r="C557" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D557" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E557" s="2" t="n">
         <v>0</v>
@@ -35783,10 +35783,10 @@
         <v>-10.218</v>
       </c>
       <c r="R557" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S557" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T557" s="2" t="n">
         <v>0</v>
@@ -35806,10 +35806,10 @@
         <v>-0.3</v>
       </c>
       <c r="C558" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D558" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E558" s="2" t="n">
         <v>0</v>
@@ -35846,10 +35846,10 @@
         <v>-9.355</v>
       </c>
       <c r="R558" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S558" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T558" s="2" t="n">
         <v>0</v>
@@ -35869,10 +35869,10 @@
         <v>-0.3</v>
       </c>
       <c r="C559" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D559" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E559" s="2" t="n">
         <v>0</v>
@@ -35909,10 +35909,10 @@
         <v>-8.685</v>
       </c>
       <c r="R559" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S559" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T559" s="2" t="n">
         <v>0</v>
@@ -35932,10 +35932,10 @@
         <v>-0.3</v>
       </c>
       <c r="C560" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D560" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E560" s="2" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>-8.125999999999999</v>
       </c>
       <c r="R560" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S560" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T560" s="2" t="n">
         <v>0</v>
@@ -35995,10 +35995,10 @@
         <v>-0.3</v>
       </c>
       <c r="C561" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D561" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E561" s="2" t="n">
         <v>0</v>
@@ -36035,10 +36035,10 @@
         <v>-7.618</v>
       </c>
       <c r="R561" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="S561" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="T561" s="2" t="n">
         <v>0</v>
@@ -36058,10 +36058,10 @@
         <v>-0.3</v>
       </c>
       <c r="C562" s="2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="D562" s="2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="E562" s="2" t="n">
         <v>0</v>
@@ -36098,10 +36098,10 @@
         <v>-7.298</v>
       </c>
       <c r="R562" s="2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="S562" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T562" s="2" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>-0.3</v>
       </c>
       <c r="C563" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D563" s="2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="D563" s="2" t="n">
-        <v>0.17</v>
       </c>
       <c r="E563" s="2" t="n">
         <v>0</v>
@@ -36161,7 +36161,7 @@
         <v>-7.039</v>
       </c>
       <c r="R563" s="2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="S563" s="2" t="n">
         <v>0.13</v>
@@ -36184,10 +36184,10 @@
         <v>-0.3</v>
       </c>
       <c r="C564" s="2" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="D564" s="2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="E564" s="2" t="n">
         <v>0</v>
@@ -36224,10 +36224,10 @@
         <v>-6.683</v>
       </c>
       <c r="R564" s="2" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="S564" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="T564" s="2" t="n">
         <v>0</v>
@@ -36247,10 +36247,10 @@
         <v>-0.3</v>
       </c>
       <c r="C565" s="2" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D565" s="2" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="E565" s="2" t="n">
         <v>0</v>
@@ -36287,10 +36287,10 @@
         <v>-6.372</v>
       </c>
       <c r="R565" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="S565" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="T565" s="2" t="n">
         <v>0</v>
@@ -36310,13 +36310,13 @@
         <v>-0.3</v>
       </c>
       <c r="C566" s="2" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="D566" s="2" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="E566" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F566" s="2" t="n">
         <v>0</v>
@@ -36350,13 +36350,13 @@
         <v>-6.054</v>
       </c>
       <c r="R566" s="2" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="S566" s="2" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="T566" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="U566" s="2" t="n">
         <v>0</v>
@@ -36373,16 +36373,16 @@
         <v>-0.3</v>
       </c>
       <c r="C567" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D567" s="2" t="n">
         <v>0.16</v>
       </c>
       <c r="E567" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F567" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G567" s="3" t="n"/>
       <c r="H567" s="2" t="n">
@@ -36413,16 +36413,16 @@
         <v>-5.826</v>
       </c>
       <c r="R567" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="S567" s="2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="T567" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="U567" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="V567" s="3" t="n">
         <v>0.0252441199857927</v>
@@ -36436,13 +36436,13 @@
         <v>-0.3</v>
       </c>
       <c r="C568" s="2" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D568" s="2" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="E568" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F568" s="2" t="n">
         <v>0</v>
@@ -36476,13 +36476,13 @@
         <v>-5.72</v>
       </c>
       <c r="R568" s="2" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="S568" s="2" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="T568" s="2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="U568" s="2" t="n">
         <v>0</v>
@@ -36499,13 +36499,13 @@
         <v>-0.3</v>
       </c>
       <c r="C569" s="2" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="D569" s="2" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="E569" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F569" s="2" t="n">
         <v>0</v>
@@ -36539,13 +36539,13 @@
         <v>-5.575</v>
       </c>
       <c r="R569" s="2" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="S569" s="2" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="T569" s="2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U569" s="2" t="n">
         <v>0</v>
@@ -36562,13 +36562,13 @@
         <v>-0.3</v>
       </c>
       <c r="C570" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D570" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E570" s="2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="D570" s="2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E570" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="F570" s="2" t="n">
         <v>0</v>
@@ -36602,13 +36602,13 @@
         <v>-5.352</v>
       </c>
       <c r="R570" s="2" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="S570" s="2" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="T570" s="2" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="U570" s="2" t="n">
         <v>0</v>
@@ -36625,10 +36625,10 @@
         <v>-0.3</v>
       </c>
       <c r="C571" s="2" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="D571" s="2" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="E571" s="2" t="n">
         <v>0</v>
@@ -36665,10 +36665,10 @@
         <v>-5.076</v>
       </c>
       <c r="R571" s="2" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="S571" s="2" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="T571" s="2" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>-0.3</v>
       </c>
       <c r="C572" s="2" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="D572" s="2" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="E572" s="2" t="n">
         <v>0</v>
@@ -36728,10 +36728,10 @@
         <v>-4.808</v>
       </c>
       <c r="R572" s="2" t="n">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="S572" s="2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="T572" s="2" t="n">
         <v>0</v>
@@ -36751,10 +36751,10 @@
         <v>-0.3</v>
       </c>
       <c r="C573" s="2" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="D573" s="2" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="E573" s="2" t="n">
         <v>0</v>
@@ -36791,7 +36791,7 @@
         <v>-4.475</v>
       </c>
       <c r="R573" s="2" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="S573" s="2" t="n">
         <v>0.3</v>
@@ -36814,10 +36814,10 @@
         <v>-0.3</v>
       </c>
       <c r="C574" s="2" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="D574" s="2" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="E574" s="2" t="n">
         <v>0</v>
@@ -36854,10 +36854,10 @@
         <v>-4.178</v>
       </c>
       <c r="R574" s="2" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="S574" s="2" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="T574" s="2" t="n">
         <v>0</v>
@@ -36877,10 +36877,10 @@
         <v>-0.3</v>
       </c>
       <c r="C575" s="2" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="D575" s="2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E575" s="2" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>-3.883</v>
       </c>
       <c r="R575" s="2" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="S575" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="T575" s="2" t="n">
         <v>0</v>
@@ -36940,10 +36940,10 @@
         <v>-0.3</v>
       </c>
       <c r="C576" s="2" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="D576" s="2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E576" s="2" t="n">
         <v>0</v>
@@ -36980,10 +36980,10 @@
         <v>-3.535</v>
       </c>
       <c r="R576" s="2" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="S576" s="2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="T576" s="2" t="n">
         <v>0</v>
@@ -37003,7 +37003,7 @@
         <v>-0.3</v>
       </c>
       <c r="C577" s="2" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="D577" s="2" t="n">
         <v>0.15</v>
@@ -37043,10 +37043,10 @@
         <v>-3.088</v>
       </c>
       <c r="R577" s="2" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="S577" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="T577" s="2" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>-0.3</v>
       </c>
       <c r="C578" s="2" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="D578" s="2" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E578" s="2" t="n">
         <v>0</v>
@@ -37106,10 +37106,10 @@
         <v>-2.856</v>
       </c>
       <c r="R578" s="2" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="S578" s="2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="T578" s="2" t="n">
         <v>0</v>
@@ -37129,10 +37129,10 @@
         <v>-0.3</v>
       </c>
       <c r="C579" s="2" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="D579" s="2" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="E579" s="2" t="n">
         <v>0</v>
@@ -37169,10 +37169,10 @@
         <v>-2.574</v>
       </c>
       <c r="R579" s="2" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="S579" s="2" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="T579" s="2" t="n">
         <v>0</v>
@@ -38820,10 +38820,10 @@
         <v>-0.3</v>
       </c>
       <c r="C606" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D606" s="2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E606" s="2" t="n">
         <v>0</v>
@@ -38860,10 +38860,10 @@
         <v>-5.788</v>
       </c>
       <c r="R606" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S606" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T606" s="2" t="n">
         <v>0</v>
@@ -39891,10 +39891,10 @@
         <v>-0.3</v>
       </c>
       <c r="C623" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D623" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E623" s="2" t="n">
         <v>0</v>
@@ -39931,10 +39931,10 @@
         <v>-5.488</v>
       </c>
       <c r="R623" s="2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S623" s="2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="T623" s="2" t="n">
         <v>0</v>
@@ -40710,10 +40710,10 @@
         <v>-0.3</v>
       </c>
       <c r="C636" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D636" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E636" s="2" t="n">
         <v>0</v>
@@ -40750,10 +40750,10 @@
         <v>-7.796</v>
       </c>
       <c r="R636" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S636" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T636" s="2" t="n">
         <v>0</v>
@@ -40773,10 +40773,10 @@
         <v>-0.3</v>
       </c>
       <c r="C637" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D637" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E637" s="2" t="n">
         <v>0</v>
@@ -40813,10 +40813,10 @@
         <v>-6.877</v>
       </c>
       <c r="R637" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S637" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T637" s="2" t="n">
         <v>0</v>
@@ -40836,10 +40836,10 @@
         <v>-0.3</v>
       </c>
       <c r="C638" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D638" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E638" s="2" t="n">
         <v>0</v>
@@ -40876,10 +40876,10 @@
         <v>-6.963</v>
       </c>
       <c r="R638" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S638" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T638" s="2" t="n">
         <v>0</v>
@@ -40899,10 +40899,10 @@
         <v>-0.3</v>
       </c>
       <c r="C639" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D639" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E639" s="2" t="n">
         <v>0</v>
@@ -40939,10 +40939,10 @@
         <v>-7.004</v>
       </c>
       <c r="R639" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S639" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T639" s="2" t="n">
         <v>0</v>
@@ -40962,10 +40962,10 @@
         <v>-0.3</v>
       </c>
       <c r="C640" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D640" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E640" s="2" t="n">
         <v>0</v>
@@ -41002,10 +41002,10 @@
         <v>-7.037</v>
       </c>
       <c r="R640" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S640" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T640" s="2" t="n">
         <v>0</v>
@@ -41025,10 +41025,10 @@
         <v>-0.3</v>
       </c>
       <c r="C641" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D641" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E641" s="2" t="n">
         <v>0</v>
@@ -41065,10 +41065,10 @@
         <v>-7.102</v>
       </c>
       <c r="R641" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S641" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T641" s="2" t="n">
         <v>0</v>
@@ -41088,10 +41088,10 @@
         <v>-0.3</v>
       </c>
       <c r="C642" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D642" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E642" s="2" t="n">
         <v>0</v>
@@ -41128,10 +41128,10 @@
         <v>-7.456</v>
       </c>
       <c r="R642" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S642" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T642" s="2" t="n">
         <v>0</v>
@@ -41151,10 +41151,10 @@
         <v>-0.3</v>
       </c>
       <c r="C643" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D643" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E643" s="2" t="n">
         <v>0</v>
@@ -41191,10 +41191,10 @@
         <v>-7.614</v>
       </c>
       <c r="R643" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S643" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T643" s="2" t="n">
         <v>0</v>
@@ -41214,10 +41214,10 @@
         <v>-0.3</v>
       </c>
       <c r="C644" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D644" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E644" s="2" t="n">
         <v>0</v>
@@ -41254,10 +41254,10 @@
         <v>-7.624</v>
       </c>
       <c r="R644" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="S644" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T644" s="2" t="n">
         <v>0</v>

--- a/src/layerSolutions_left_Civil.xlsx
+++ b/src/layerSolutions_left_Civil.xlsx
@@ -435,8 +435,8 @@
   </sheetPr>
   <dimension ref="A1:V644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
-      <selection activeCell="B644" sqref="B644"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -628,10 +628,10 @@
         <v>-1.99999999999412</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -666,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>-14.169</v>
+        <v>-13.9555152609054</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>-1.99999999999293</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>-13.64</v>
+        <v>-13.5000000001641</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="T4" s="2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>-1.99999999999412</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>-13.653</v>
+        <v>-13.5000000002424</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="2" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>-13.605</v>
+        <v>-13.5000000003332</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>-14.207</v>
+        <v>-14.045868288113</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>-1.99999999999293</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1050,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>-10.654</v>
+        <v>-10.49999999999692</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="T9" s="2" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>-1.99999999999412</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>-10.673</v>
+        <v>-10.4999999999981</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>-10.704</v>
+        <v>-10.49999999999692</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0.12</v>
@@ -1204,10 +1204,10 @@
         <v>-1.99999999999293</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>-10.767</v>
+        <v>-10.4999999999981</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>-1.99999999997917</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>-10.728</v>
+        <v>-10.49999999999692</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="T13" s="2" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>-1.99999999999293</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>-10.747</v>
+        <v>-10.49999999999692</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>-10.712</v>
+        <v>-10.4999999999981</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>-10.721</v>
+        <v>-10.49999999999692</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0.13</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>-10.711</v>
+        <v>-10.4999999999981</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0.13</v>
@@ -1588,10 +1588,10 @@
         <v>-2.00011422891936</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>-10.664</v>
+        <v>-10.5001142289167</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>-10.548</v>
+        <v>-10.49960717178584</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0.13</v>
@@ -9364,13 +9364,13 @@
         <v>-0.300000000016708</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F146" s="2" t="n">
         <v>0</v>
@@ -9405,13 +9405,13 @@
         <v>-4.017</v>
       </c>
       <c r="R146" s="2" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="S146" s="2" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="T146" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="U146" s="2" t="n">
         <v>0</v>
@@ -9748,13 +9748,13 @@
         <v>-0.300000000025586</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>0</v>
@@ -9789,13 +9789,13 @@
         <v>-7.035</v>
       </c>
       <c r="R152" s="2" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="S152" s="2" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="T152" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="U152" s="2" t="n">
         <v>0</v>
@@ -10072,10 +10072,10 @@
         <v>-0.300000000004276</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>0</v>
@@ -10087,10 +10087,10 @@
         <v>-2.846</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J157" s="2" t="n">
         <v>0</v>
@@ -10250,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="Q159" s="3" t="n">
-        <v>-12.657</v>
+        <v>-12.3000000000085</v>
       </c>
       <c r="R159" s="2" t="n">
         <v>0</v>
@@ -10306,10 +10306,10 @@
         <v>-3.906</v>
       </c>
       <c r="M160" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N160" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O160" s="2" t="n">
         <v>0</v>
@@ -10318,13 +10318,13 @@
         <v>0</v>
       </c>
       <c r="Q160" s="3" t="n">
-        <v>-13.443</v>
+        <v>-12.2999999999935</v>
       </c>
       <c r="R160" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S160" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="T160" s="2" t="n">
         <v>0</v>
@@ -10344,10 +10344,10 @@
         <v>-0.300000000003251</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>0</v>
@@ -10359,10 +10359,10 @@
         <v>-4.157</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J161" s="2" t="n">
         <v>0</v>
@@ -10374,10 +10374,10 @@
         <v>-4.157</v>
       </c>
       <c r="M161" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N161" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O161" s="2" t="n">
         <v>0</v>
@@ -10386,13 +10386,13 @@
         <v>0</v>
       </c>
       <c r="Q161" s="3" t="n">
-        <v>-14.083</v>
+        <v>-12.4582078696037</v>
       </c>
       <c r="R161" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S161" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="T161" s="2" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>-4.255</v>
       </c>
       <c r="M162" s="2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="N162" s="2" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="O162" s="2" t="n">
         <v>0</v>
@@ -10454,13 +10454,13 @@
         <v>0</v>
       </c>
       <c r="Q162" s="3" t="n">
-        <v>-15.746</v>
+        <v>-14.5293427398727</v>
       </c>
       <c r="R162" s="2" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="S162" s="2" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="T162" s="2" t="n">
         <v>0</v>
@@ -10510,10 +10510,10 @@
         <v>-4.396</v>
       </c>
       <c r="M163" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N163" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O163" s="2" t="n">
         <v>0</v>
@@ -10522,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="Q163" s="3" t="n">
-        <v>-10.7999999999866</v>
+        <v>-8.799999999990421</v>
       </c>
       <c r="R163" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S163" s="2" t="n">
         <v>0.3</v>
@@ -10548,10 +10548,10 @@
         <v>-0.300000000004276</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>0</v>
@@ -10563,10 +10563,10 @@
         <v>-4.481</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J164" s="2" t="n">
         <v>0</v>
@@ -10578,10 +10578,10 @@
         <v>-4.481</v>
       </c>
       <c r="M164" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N164" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O164" s="2" t="n">
         <v>0</v>
@@ -10590,13 +10590,13 @@
         <v>0</v>
       </c>
       <c r="Q164" s="3" t="n">
-        <v>-10.8000000000016</v>
+        <v>-8.800000000004379</v>
       </c>
       <c r="R164" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S164" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="T164" s="2" t="n">
         <v>0</v>
@@ -10616,10 +10616,10 @@
         <v>-0.299999999985573</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>0</v>
@@ -10631,10 +10631,10 @@
         <v>-4.635</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J165" s="2" t="n">
         <v>0</v>
@@ -10646,10 +10646,10 @@
         <v>-4.635</v>
       </c>
       <c r="M165" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N165" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O165" s="2" t="n">
         <v>0</v>
@@ -10658,13 +10658,13 @@
         <v>0</v>
       </c>
       <c r="Q165" s="3" t="n">
-        <v>-10.7999999999834</v>
+        <v>-8.79999999998633</v>
       </c>
       <c r="R165" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S165" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="T165" s="2" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="Q166" s="3" t="n">
-        <v>-10.7999999999924</v>
+        <v>-8.80000000000263</v>
       </c>
       <c r="R166" s="2" t="n">
         <v>0.12</v>
@@ -10782,10 +10782,10 @@
         <v>-4.461</v>
       </c>
       <c r="M167" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N167" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O167" s="2" t="n">
         <v>0</v>
@@ -10794,13 +10794,13 @@
         <v>0</v>
       </c>
       <c r="Q167" s="3" t="n">
-        <v>-10.7999999999954</v>
+        <v>-8.800000000006451</v>
       </c>
       <c r="R167" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S167" s="2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="T167" s="2" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>-0.299999999993337</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>-4.253</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J168" s="2" t="n">
         <v>0</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="Q168" s="3" t="n">
-        <v>-10.7999999999953</v>
+        <v>-8.799999999994199</v>
       </c>
       <c r="R168" s="2" t="n">
         <v>0.13</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="Q169" s="3" t="n">
-        <v>-10.7999999999977</v>
+        <v>-8.79999999999453</v>
       </c>
       <c r="R169" s="2" t="n">
         <v>0.13</v>
@@ -10956,10 +10956,10 @@
         <v>-0.299999999995238</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>0</v>
@@ -10971,10 +10971,10 @@
         <v>-4.164</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J170" s="2" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="Q171" s="3" t="n">
-        <v>-13.582</v>
+        <v>-12.8552093499355</v>
       </c>
       <c r="R171" s="2" t="n">
         <v>0</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="Q172" s="3" t="n">
-        <v>-13.19</v>
+        <v>-12.3000161050553</v>
       </c>
       <c r="R172" s="2" t="n">
         <v>0</v>
@@ -11160,10 +11160,10 @@
         <v>-0.299999999992807</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>0</v>
@@ -11175,10 +11175,10 @@
         <v>-3.944</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J173" s="2" t="n">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="Q173" s="3" t="n">
-        <v>-12.833</v>
+        <v>-12.2949812070049</v>
       </c>
       <c r="R173" s="2" t="n">
         <v>0</v>
@@ -11228,10 +11228,10 @@
         <v>-0.299999999992807</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>0</v>
@@ -11243,10 +11243,10 @@
         <v>-3.841</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J174" s="2" t="n">
         <v>0</v>
@@ -11258,10 +11258,10 @@
         <v>-3.841</v>
       </c>
       <c r="M174" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N174" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O174" s="2" t="n">
         <v>0</v>
@@ -11270,13 +11270,13 @@
         <v>0</v>
       </c>
       <c r="Q174" s="3" t="n">
-        <v>-12.411</v>
+        <v>-12.2993779570566</v>
       </c>
       <c r="R174" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S174" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="T174" s="2" t="n">
         <v>0</v>
@@ -11326,10 +11326,10 @@
         <v>-3.904</v>
       </c>
       <c r="M175" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N175" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O175" s="2" t="n">
         <v>0</v>
@@ -11338,13 +11338,13 @@
         <v>0</v>
       </c>
       <c r="Q175" s="3" t="n">
-        <v>-11.985</v>
+        <v>-11.4030747899976</v>
       </c>
       <c r="R175" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S175" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T175" s="2" t="n">
         <v>0</v>
@@ -11364,10 +11364,10 @@
         <v>-0.300000000054567</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E176" s="2" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>-4.002</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J176" s="2" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>-4.002</v>
       </c>
       <c r="M176" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N176" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O176" s="2" t="n">
         <v>0</v>
@@ -11406,13 +11406,13 @@
         <v>0</v>
       </c>
       <c r="Q176" s="3" t="n">
-        <v>-11.644</v>
+        <v>-10.3713575378502</v>
       </c>
       <c r="R176" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S176" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="T176" s="2" t="n">
         <v>0</v>
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="Q177" s="3" t="n">
-        <v>-11.3029138502153</v>
+        <v>-9.30042272320688</v>
       </c>
       <c r="R177" s="2" t="n">
         <v>0.13</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="Q178" s="3" t="n">
-        <v>-10.8000000000053</v>
+        <v>-8.800000000018709</v>
       </c>
       <c r="R178" s="2" t="n">
         <v>0.13</v>
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="Q179" s="3" t="n">
-        <v>-10.799999999991</v>
+        <v>-8.799999999995499</v>
       </c>
       <c r="R179" s="2" t="n">
         <v>0.13</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="Q180" s="3" t="n">
-        <v>-10.8000000000082</v>
+        <v>-8.80000000000037</v>
       </c>
       <c r="R180" s="2" t="n">
         <v>0.13</v>
@@ -11704,10 +11704,10 @@
         <v>-0.299999999996132</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E181" s="2" t="n">
         <v>0</v>
@@ -11719,10 +11719,10 @@
         <v>-3.955</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J181" s="2" t="n">
         <v>0</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="Q181" s="3" t="n">
-        <v>-10.7999999999935</v>
+        <v>-8.799999999988779</v>
       </c>
       <c r="R181" s="2" t="n">
         <v>0.13</v>
@@ -11772,10 +11772,10 @@
         <v>-0.299999999997375</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>0</v>
@@ -11787,10 +11787,10 @@
         <v>-3.483</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J182" s="2" t="n">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="Q182" s="3" t="n">
-        <v>-10.493</v>
+        <v>-8.80000000000704</v>
       </c>
       <c r="R182" s="2" t="n">
         <v>0.13</v>
@@ -11840,10 +11840,10 @@
         <v>-0.299999999992836</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E183" s="2" t="n">
         <v>0</v>
@@ -11855,10 +11855,10 @@
         <v>-2.824</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J183" s="2" t="n">
         <v>0</v>
@@ -11870,10 +11870,10 @@
         <v>-2.824</v>
       </c>
       <c r="M183" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N183" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O183" s="2" t="n">
         <v>0</v>
@@ -11882,13 +11882,13 @@
         <v>0</v>
       </c>
       <c r="Q183" s="3" t="n">
-        <v>-9.811</v>
+        <v>-8.800000000002729</v>
       </c>
       <c r="R183" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S183" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="T183" s="2" t="n">
         <v>0</v>
@@ -11946,13 +11946,13 @@
         <v>0</v>
       </c>
       <c r="Q184" s="3" t="n">
-        <v>-9.17</v>
+        <v>-8.80000000000596</v>
       </c>
       <c r="R184" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="S184" s="2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="T184" s="2" t="n">
         <v>0</v>
@@ -12036,10 +12036,10 @@
         <v>-0.299999999999572</v>
       </c>
       <c r="C186" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>0</v>
@@ -12077,10 +12077,10 @@
         <v>-7.857</v>
       </c>
       <c r="R186" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S186" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="T186" s="2" t="n">
         <v>0</v>
@@ -12100,10 +12100,10 @@
         <v>-0.299999999993799</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>0</v>
@@ -12141,10 +12141,10 @@
         <v>-6.888</v>
       </c>
       <c r="R187" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S187" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="T187" s="2" t="n">
         <v>0</v>
@@ -12164,10 +12164,10 @@
         <v>-0.299999999996377</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>0</v>
@@ -12205,10 +12205,10 @@
         <v>-5.892</v>
       </c>
       <c r="R188" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S188" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="T188" s="2" t="n">
         <v>0</v>
@@ -12228,10 +12228,10 @@
         <v>-0.300000000007436</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E189" s="2" t="n">
         <v>0</v>
@@ -12269,10 +12269,10 @@
         <v>-4.905</v>
       </c>
       <c r="R189" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S189" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="T189" s="2" t="n">
         <v>0</v>
@@ -12292,10 +12292,10 @@
         <v>-0.300000000000548</v>
       </c>
       <c r="C190" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E190" s="2" t="n">
         <v>0</v>
@@ -12333,10 +12333,10 @@
         <v>-4.146</v>
       </c>
       <c r="R190" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S190" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="T190" s="2" t="n">
         <v>0</v>
@@ -12420,10 +12420,10 @@
         <v>-0.299999999995328</v>
       </c>
       <c r="C192" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E192" s="2" t="n">
         <v>0</v>
@@ -12461,10 +12461,10 @@
         <v>-3.053</v>
       </c>
       <c r="R192" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S192" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="T192" s="2" t="n">
         <v>0</v>
@@ -13808,10 +13808,10 @@
         <v>-0.300000000037866</v>
       </c>
       <c r="C215" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E215" s="2" t="n">
         <v>0</v>
@@ -13849,10 +13849,10 @@
         <v>-2.761</v>
       </c>
       <c r="R215" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S215" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="T215" s="2" t="n">
         <v>0</v>
@@ -14098,10 +14098,10 @@
         <v>-4.206</v>
       </c>
       <c r="M219" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N219" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O219" s="2" t="n">
         <v>0</v>
@@ -14113,10 +14113,10 @@
         <v>-7.515</v>
       </c>
       <c r="R219" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S219" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="T219" s="2" t="n">
         <v>0</v>
@@ -14136,10 +14136,10 @@
         <v>-0.300000000000684</v>
       </c>
       <c r="C220" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E220" s="2" t="n">
         <v>0</v>
@@ -14151,10 +14151,10 @@
         <v>-6.083</v>
       </c>
       <c r="H220" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I220" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="J220" s="2" t="n">
         <v>0</v>
@@ -14178,13 +14178,13 @@
         <v>0</v>
       </c>
       <c r="Q220" s="3" t="n">
-        <v>-9.456</v>
+        <v>-8.8000000000025</v>
       </c>
       <c r="R220" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="S220" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="T220" s="2" t="n">
         <v>0</v>
@@ -14204,10 +14204,10 @@
         <v>-0.300000000001353</v>
       </c>
       <c r="C221" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E221" s="2" t="n">
         <v>0</v>
@@ -14219,10 +14219,10 @@
         <v>-7.801</v>
       </c>
       <c r="H221" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I221" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="J221" s="2" t="n">
         <v>0</v>
@@ -14246,13 +14246,13 @@
         <v>0</v>
       </c>
       <c r="Q221" s="3" t="n">
-        <v>-10.7999999999967</v>
+        <v>-8.800000000000789</v>
       </c>
       <c r="R221" s="2" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="S221" s="2" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="T221" s="2" t="n">
         <v>0</v>
@@ -14314,13 +14314,13 @@
         <v>0</v>
       </c>
       <c r="Q222" s="3" t="n">
-        <v>-10.7999999999983</v>
+        <v>-8.79999999999426</v>
       </c>
       <c r="R222" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="S222" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="T222" s="2" t="n">
         <v>0</v>
@@ -14370,10 +14370,10 @@
         <v>-10.073</v>
       </c>
       <c r="M223" s="2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="N223" s="2" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="O223" s="2" t="n">
         <v>0</v>
@@ -14382,13 +14382,13 @@
         <v>0</v>
       </c>
       <c r="Q223" s="3" t="n">
-        <v>-10.8000000000013</v>
+        <v>-8.799999999992609</v>
       </c>
       <c r="R223" s="2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="S223" s="2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="T223" s="2" t="n">
         <v>0</v>
@@ -14408,10 +14408,10 @@
         <v>-0.300000000000845</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E224" s="2" t="n">
         <v>0</v>
@@ -14423,10 +14423,10 @@
         <v>-10.766</v>
       </c>
       <c r="H224" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I224" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="J224" s="2" t="n">
         <v>0</v>
@@ -14438,10 +14438,10 @@
         <v>-10.766</v>
       </c>
       <c r="M224" s="2" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="N224" s="2" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="O224" s="2" t="n">
         <v>0</v>
@@ -14450,13 +14450,13 @@
         <v>0</v>
       </c>
       <c r="Q224" s="3" t="n">
-        <v>-10.8000000000053</v>
+        <v>-8.7999999999958</v>
       </c>
       <c r="R224" s="2" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="S224" s="2" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="T224" s="2" t="n">
         <v>0</v>
@@ -14476,10 +14476,10 @@
         <v>-0.300000000004265</v>
       </c>
       <c r="C225" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E225" s="2" t="n">
         <v>0</v>
@@ -14491,10 +14491,10 @@
         <v>-11.007</v>
       </c>
       <c r="H225" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I225" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J225" s="2" t="n">
         <v>0</v>
@@ -14506,25 +14506,25 @@
         <v>-11.007</v>
       </c>
       <c r="M225" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N225" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="N225" s="2" t="n">
+      <c r="O225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="3" t="n">
+        <v>-8.79999999999743</v>
+      </c>
+      <c r="R225" s="2" t="n">
         <v>0.13</v>
       </c>
-      <c r="O225" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P225" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q225" s="3" t="n">
-        <v>-10.8000000000028</v>
-      </c>
-      <c r="R225" s="2" t="n">
-        <v>0.2</v>
-      </c>
       <c r="S225" s="2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T225" s="2" t="n">
         <v>0</v>
@@ -14574,10 +14574,10 @@
         <v>-11.092</v>
       </c>
       <c r="M226" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="N226" s="2" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="O226" s="2" t="n">
         <v>0</v>
@@ -14586,13 +14586,13 @@
         <v>0</v>
       </c>
       <c r="Q226" s="3" t="n">
-        <v>-10.7999999999966</v>
+        <v>-8.79999999999597</v>
       </c>
       <c r="R226" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="S226" s="2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="T226" s="2" t="n">
         <v>0</v>
@@ -14642,28 +14642,28 @@
         <v>-10.831</v>
       </c>
       <c r="M227" s="2" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="N227" s="2" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="O227" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P227" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q227" s="3" t="n">
-        <v>-10.8000000000056</v>
+        <v>-8.799999999994469</v>
       </c>
       <c r="R227" s="2" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="S227" s="2" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="T227" s="2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U227" s="2" t="n">
         <v>0</v>
@@ -14722,13 +14722,13 @@
         <v>0</v>
       </c>
       <c r="Q228" s="3" t="n">
-        <v>-10.7999999999952</v>
+        <v>-8.800000000004459</v>
       </c>
       <c r="R228" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="S228" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="T228" s="2" t="n">
         <v>0</v>
@@ -14790,13 +14790,13 @@
         <v>0</v>
       </c>
       <c r="Q229" s="3" t="n">
-        <v>-10.8000000000021</v>
+        <v>-8.80000000000615</v>
       </c>
       <c r="R229" s="2" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="S229" s="2" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="T229" s="2" t="n">
         <v>0</v>
@@ -14816,10 +14816,10 @@
         <v>-0.300000000038602</v>
       </c>
       <c r="C230" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E230" s="2" t="n">
         <v>0</v>
@@ -14831,10 +14831,10 @@
         <v>-8.19</v>
       </c>
       <c r="H230" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I230" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="J230" s="2" t="n">
         <v>0</v>
@@ -14858,13 +14858,13 @@
         <v>0</v>
       </c>
       <c r="Q230" s="3" t="n">
-        <v>-10.7999999999988</v>
+        <v>-8.800000000002189</v>
       </c>
       <c r="R230" s="2" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="S230" s="2" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="T230" s="2" t="n">
         <v>0</v>
@@ -14926,13 +14926,13 @@
         <v>0</v>
       </c>
       <c r="Q231" s="3" t="n">
-        <v>-10.707</v>
+        <v>-8.800000000005481</v>
       </c>
       <c r="R231" s="2" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="S231" s="2" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="T231" s="2" t="n">
         <v>0</v>
@@ -14994,13 +14994,13 @@
         <v>0</v>
       </c>
       <c r="Q232" s="3" t="n">
-        <v>-10.187</v>
+        <v>-8.800000000002481</v>
       </c>
       <c r="R232" s="2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="S232" s="2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="T232" s="2" t="n">
         <v>0</v>
@@ -15062,13 +15062,13 @@
         <v>0</v>
       </c>
       <c r="Q233" s="3" t="n">
-        <v>-10.032</v>
+        <v>-8.80000000000852</v>
       </c>
       <c r="R233" s="2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="S233" s="2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="T233" s="2" t="n">
         <v>0</v>
@@ -15130,13 +15130,13 @@
         <v>0</v>
       </c>
       <c r="Q234" s="3" t="n">
-        <v>-9.977</v>
+        <v>-8.80000000000638</v>
       </c>
       <c r="R234" s="2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="S234" s="2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="T234" s="2" t="n">
         <v>0</v>
@@ -15198,13 +15198,13 @@
         <v>0</v>
       </c>
       <c r="Q235" s="3" t="n">
-        <v>-10.064</v>
+        <v>-8.80000000000538</v>
       </c>
       <c r="R235" s="2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="S235" s="2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="T235" s="2" t="n">
         <v>0</v>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
       <c r="Q236" s="3" t="n">
-        <v>-10.232</v>
+        <v>-8.800000000004241</v>
       </c>
       <c r="R236" s="2" t="n">
         <v>0.13</v>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="Q237" s="3" t="n">
-        <v>-10.356</v>
+        <v>-8.80000000002093</v>
       </c>
       <c r="R237" s="2" t="n">
         <v>0.13</v>
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="Q238" s="3" t="n">
-        <v>-10.083</v>
+        <v>-8.800000000020599</v>
       </c>
       <c r="R238" s="2" t="n">
         <v>0.13</v>
@@ -15470,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="Q239" s="3" t="n">
-        <v>-9.234</v>
+        <v>-8.799999999998141</v>
       </c>
       <c r="R239" s="2" t="n">
         <v>0.13</v>
@@ -15878,7 +15878,7 @@
         <v>0</v>
       </c>
       <c r="Q245" s="3" t="n">
-        <v>-9.022</v>
+        <v>-8.79999999999426</v>
       </c>
       <c r="R245" s="2" t="n">
         <v>0.26</v>
@@ -15946,13 +15946,13 @@
         <v>0</v>
       </c>
       <c r="Q246" s="3" t="n">
-        <v>-9.943</v>
+        <v>-8.79999999999426</v>
       </c>
       <c r="R246" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="S246" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="T246" s="2" t="n">
         <v>0</v>
@@ -16014,13 +16014,13 @@
         <v>0</v>
       </c>
       <c r="Q247" s="3" t="n">
-        <v>-9.696</v>
+        <v>-8.79999999998336</v>
       </c>
       <c r="R247" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="S247" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="T247" s="2" t="n">
         <v>0</v>
@@ -16040,10 +16040,10 @@
         <v>-0.300000000015845</v>
       </c>
       <c r="C248" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E248" s="2" t="n">
         <v>0</v>
@@ -16055,10 +16055,10 @@
         <v>-2.868</v>
       </c>
       <c r="H248" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I248" s="2" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="J248" s="2" t="n">
         <v>0</v>
@@ -16082,13 +16082,13 @@
         <v>0</v>
       </c>
       <c r="Q248" s="3" t="n">
-        <v>-9.651999999999999</v>
+        <v>-8.8000000000035</v>
       </c>
       <c r="R248" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="S248" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="T248" s="2" t="n">
         <v>0</v>
@@ -16138,10 +16138,10 @@
         <v>-3.146</v>
       </c>
       <c r="M249" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N249" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O249" s="2" t="n">
         <v>0</v>
@@ -16153,10 +16153,10 @@
         <v>-6.912</v>
       </c>
       <c r="R249" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S249" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="T249" s="2" t="n">
         <v>0</v>
@@ -16176,10 +16176,10 @@
         <v>-0.30000000000184</v>
       </c>
       <c r="C250" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E250" s="2" t="n">
         <v>0</v>
@@ -16191,10 +16191,10 @@
         <v>-3.123</v>
       </c>
       <c r="H250" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I250" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="n">
         <v>0</v>
@@ -16206,10 +16206,10 @@
         <v>-3.123</v>
       </c>
       <c r="M250" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N250" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="O250" s="2" t="n">
         <v>0</v>
@@ -16221,10 +16221,10 @@
         <v>-6.875</v>
       </c>
       <c r="R250" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S250" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="T250" s="2" t="n">
         <v>0</v>
@@ -16274,10 +16274,10 @@
         <v>-3.3</v>
       </c>
       <c r="M251" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N251" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O251" s="2" t="n">
         <v>0</v>
@@ -16289,10 +16289,10 @@
         <v>-7.063</v>
       </c>
       <c r="R251" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S251" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="T251" s="2" t="n">
         <v>0</v>
@@ -16312,10 +16312,10 @@
         <v>-0.29999999999852</v>
       </c>
       <c r="C252" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E252" s="2" t="n">
         <v>0</v>
@@ -16327,10 +16327,10 @@
         <v>-3.599</v>
       </c>
       <c r="H252" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I252" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J252" s="2" t="n">
         <v>0</v>
@@ -16422,7 +16422,7 @@
         <v>0</v>
       </c>
       <c r="Q253" s="3" t="n">
-        <v>-10.8000000000009</v>
+        <v>-8.800000000003729</v>
       </c>
       <c r="R253" s="2" t="n">
         <v>0.36</v>
@@ -16516,13 +16516,13 @@
         <v>-0.300000000150335</v>
       </c>
       <c r="C255" s="2" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F255" s="2" t="n">
         <v>0</v>
@@ -16531,13 +16531,13 @@
         <v>-5.084</v>
       </c>
       <c r="H255" s="2" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I255" s="2" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="J255" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K255" s="2" t="n">
         <v>0</v>
@@ -16558,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="Q255" s="3" t="n">
-        <v>-8.801</v>
+        <v>-8.80000000000522</v>
       </c>
       <c r="R255" s="2" t="n">
         <v>0.32</v>
@@ -16626,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="Q256" s="3" t="n">
-        <v>-9.608000000000001</v>
+        <v>-8.80000000000395</v>
       </c>
       <c r="R256" s="2" t="n">
         <v>0.24</v>
@@ -16682,10 +16682,10 @@
         <v>-6.327</v>
       </c>
       <c r="M257" s="2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="N257" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="O257" s="2" t="n">
         <v>0</v>
@@ -16694,10 +16694,10 @@
         <v>0</v>
       </c>
       <c r="Q257" s="3" t="n">
-        <v>-10.119</v>
+        <v>-8.79999999999696</v>
       </c>
       <c r="R257" s="2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="S257" s="2" t="n">
         <v>0.3</v>
@@ -16762,13 +16762,13 @@
         <v>0</v>
       </c>
       <c r="Q258" s="3" t="n">
-        <v>-10.601</v>
+        <v>-8.80000000001001</v>
       </c>
       <c r="R258" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="S258" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="T258" s="2" t="n">
         <v>0</v>
@@ -16830,13 +16830,13 @@
         <v>0</v>
       </c>
       <c r="Q259" s="3" t="n">
-        <v>-10.8000000000084</v>
+        <v>-8.800000000018271</v>
       </c>
       <c r="R259" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="S259" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="T259" s="2" t="n">
         <v>0</v>
@@ -16886,10 +16886,10 @@
         <v>-8.147</v>
       </c>
       <c r="M260" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="N260" s="2" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="O260" s="2" t="n">
         <v>0</v>
@@ -16898,13 +16898,13 @@
         <v>0</v>
       </c>
       <c r="Q260" s="3" t="n">
-        <v>-10.7999999999937</v>
+        <v>-8.8000000000018</v>
       </c>
       <c r="R260" s="2" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="S260" s="2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="T260" s="2" t="n">
         <v>0</v>
@@ -16924,10 +16924,10 @@
         <v>-0.300000000045387</v>
       </c>
       <c r="C261" s="2" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="E261" s="2" t="n">
         <v>0</v>
@@ -16939,10 +16939,10 @@
         <v>-8.680999999999999</v>
       </c>
       <c r="H261" s="2" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I261" s="2" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="J261" s="2" t="n">
         <v>0</v>
@@ -16966,13 +16966,13 @@
         <v>0</v>
       </c>
       <c r="Q261" s="3" t="n">
-        <v>-10.8000000000029</v>
+        <v>-8.80000000000685</v>
       </c>
       <c r="R261" s="2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="S261" s="2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="T261" s="2" t="n">
         <v>0</v>
@@ -16992,10 +16992,10 @@
         <v>-0.300000000020933</v>
       </c>
       <c r="C262" s="2" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="E262" s="2" t="n">
         <v>0</v>
@@ -17007,10 +17007,10 @@
         <v>-8.606</v>
       </c>
       <c r="H262" s="2" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I262" s="2" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="J262" s="2" t="n">
         <v>0</v>
@@ -17034,13 +17034,13 @@
         <v>0</v>
       </c>
       <c r="Q262" s="3" t="n">
-        <v>-10.8000000000045</v>
+        <v>-8.800000000005371</v>
       </c>
       <c r="R262" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="S262" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="T262" s="2" t="n">
         <v>0</v>
@@ -17060,10 +17060,10 @@
         <v>-0.300000000013218</v>
       </c>
       <c r="C263" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="E263" s="2" t="n">
         <v>0</v>
@@ -17075,10 +17075,10 @@
         <v>-8.555999999999999</v>
       </c>
       <c r="H263" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I263" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J263" s="2" t="n">
         <v>0</v>
@@ -17102,13 +17102,13 @@
         <v>0</v>
       </c>
       <c r="Q263" s="3" t="n">
-        <v>-10.8000000000085</v>
+        <v>-8.800000000005889</v>
       </c>
       <c r="R263" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="S263" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="T263" s="2" t="n">
         <v>0</v>
@@ -17170,13 +17170,13 @@
         <v>0</v>
       </c>
       <c r="Q264" s="3" t="n">
-        <v>-10.7999999999931</v>
+        <v>-8.799999999993069</v>
       </c>
       <c r="R264" s="2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="S264" s="2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="T264" s="2" t="n">
         <v>0</v>
@@ -17238,13 +17238,13 @@
         <v>0</v>
       </c>
       <c r="Q265" s="3" t="n">
-        <v>-10.8000000000025</v>
+        <v>-8.800000000001191</v>
       </c>
       <c r="R265" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="S265" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="T265" s="2" t="n">
         <v>0</v>
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="Q266" s="3" t="n">
-        <v>-10.8000000000038</v>
+        <v>-8.80000000000047</v>
       </c>
       <c r="R266" s="2" t="n">
         <v>0.32</v>
@@ -17362,10 +17362,10 @@
         <v>-6.557</v>
       </c>
       <c r="M267" s="2" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="N267" s="2" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="O267" s="2" t="n">
         <v>0</v>
@@ -17374,10 +17374,10 @@
         <v>0</v>
       </c>
       <c r="Q267" s="3" t="n">
-        <v>-10.352</v>
+        <v>-8.800000000004919</v>
       </c>
       <c r="R267" s="2" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="S267" s="2" t="n">
         <v>0.3</v>
@@ -17400,10 +17400,10 @@
         <v>-0.299999999999714</v>
       </c>
       <c r="C268" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E268" s="2" t="n">
         <v>0</v>
@@ -17415,10 +17415,10 @@
         <v>-6.725</v>
       </c>
       <c r="H268" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I268" s="2" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="J268" s="2" t="n">
         <v>0</v>
@@ -17430,10 +17430,10 @@
         <v>-6.725</v>
       </c>
       <c r="M268" s="2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="N268" s="2" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="O268" s="2" t="n">
         <v>0</v>
@@ -17442,13 +17442,13 @@
         <v>0</v>
       </c>
       <c r="Q268" s="3" t="n">
-        <v>-10.403</v>
+        <v>-8.79999999999297</v>
       </c>
       <c r="R268" s="2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="S268" s="2" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="T268" s="2" t="n">
         <v>0</v>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="Q269" s="3" t="n">
-        <v>-10.553</v>
+        <v>-8.800000000000219</v>
       </c>
       <c r="R269" s="2" t="n">
         <v>0.32</v>
@@ -17536,13 +17536,13 @@
         <v>-0.299999999999178</v>
       </c>
       <c r="C270" s="2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E270" s="2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F270" s="2" t="n">
         <v>0</v>
@@ -17551,13 +17551,13 @@
         <v>-6.694</v>
       </c>
       <c r="H270" s="2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I270" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="J270" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K270" s="2" t="n">
         <v>0</v>
@@ -17578,13 +17578,13 @@
         <v>0</v>
       </c>
       <c r="Q270" s="3" t="n">
-        <v>-10.486</v>
+        <v>-8.800000000005941</v>
       </c>
       <c r="R270" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="S270" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="T270" s="2" t="n">
         <v>0</v>
@@ -17646,13 +17646,13 @@
         <v>0</v>
       </c>
       <c r="Q271" s="3" t="n">
-        <v>-10.361</v>
+        <v>-8.800000000003561</v>
       </c>
       <c r="R271" s="2" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="S271" s="2" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="T271" s="2" t="n">
         <v>0</v>
@@ -17702,10 +17702,10 @@
         <v>-5.972</v>
       </c>
       <c r="M272" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="N272" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="O272" s="2" t="n">
         <v>0</v>
@@ -17714,13 +17714,13 @@
         <v>0</v>
       </c>
       <c r="Q272" s="3" t="n">
-        <v>-9.945</v>
+        <v>-8.80000000000085</v>
       </c>
       <c r="R272" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="S272" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="T272" s="2" t="n">
         <v>0</v>
@@ -17770,10 +17770,10 @@
         <v>-5.101</v>
       </c>
       <c r="M273" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="N273" s="2" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="O273" s="2" t="n">
         <v>0</v>
@@ -17782,13 +17782,13 @@
         <v>0</v>
       </c>
       <c r="Q273" s="3" t="n">
-        <v>-8.92</v>
+        <v>-8.79999999999673</v>
       </c>
       <c r="R273" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="S273" s="2" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="T273" s="2" t="n">
         <v>0</v>
@@ -17838,10 +17838,10 @@
         <v>-4.282</v>
       </c>
       <c r="M274" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N274" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="O274" s="2" t="n">
         <v>0</v>
@@ -17853,10 +17853,10 @@
         <v>-7.976</v>
       </c>
       <c r="R274" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S274" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="T274" s="2" t="n">
         <v>0</v>
@@ -17944,10 +17944,10 @@
         <v>-0.300000000058636</v>
       </c>
       <c r="C276" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E276" s="2" t="n">
         <v>0</v>
@@ -17985,10 +17985,10 @@
         <v>-5.91</v>
       </c>
       <c r="R276" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S276" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="T276" s="2" t="n">
         <v>0</v>
@@ -18008,13 +18008,13 @@
         <v>-0.300000000024012</v>
       </c>
       <c r="C277" s="2" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="E277" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F277" s="2" t="n">
         <v>0</v>
@@ -18049,13 +18049,13 @@
         <v>-4.864</v>
       </c>
       <c r="R277" s="2" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="S277" s="2" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="T277" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U277" s="2" t="n">
         <v>0</v>
@@ -18520,16 +18520,16 @@
         <v>-0.30000000002085</v>
       </c>
       <c r="C285" s="2" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F285" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G285" s="3" t="inlineStr"/>
       <c r="H285" s="2" t="n">
@@ -18561,16 +18561,16 @@
         <v>-3.153</v>
       </c>
       <c r="R285" s="2" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="S285" s="2" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="T285" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U285" s="2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="V285" s="3" t="n">
         <v>0.056440151494435</v>
@@ -19080,10 +19080,10 @@
         <v>-0.300000000006342</v>
       </c>
       <c r="C294" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E294" s="2" t="n">
         <v>0</v>
@@ -19121,10 +19121,10 @@
         <v>-2.517</v>
       </c>
       <c r="R294" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S294" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="T294" s="2" t="n">
         <v>0</v>
@@ -28272,13 +28272,13 @@
         <v>-0.300000000006756</v>
       </c>
       <c r="C446" s="2" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="D446" s="2" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="E446" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F446" s="2" t="n">
         <v>0</v>
@@ -28313,13 +28313,13 @@
         <v>-2.622</v>
       </c>
       <c r="R446" s="2" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="S446" s="2" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="T446" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U446" s="2" t="n">
         <v>0</v>
@@ -28336,13 +28336,13 @@
         <v>-0.300000000006756</v>
       </c>
       <c r="C447" s="2" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="D447" s="2" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="E447" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F447" s="2" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>-3.713</v>
       </c>
       <c r="R447" s="2" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="S447" s="2" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="T447" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="U447" s="2" t="n">
         <v>0</v>
@@ -29168,10 +29168,10 @@
         <v>-0.300000000006756</v>
       </c>
       <c r="C460" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D460" s="2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E460" s="2" t="n">
         <v>0</v>
@@ -29209,10 +29209,10 @@
         <v>-8.130000000000001</v>
       </c>
       <c r="R460" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S460" s="2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="T460" s="2" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="Q464" s="3" t="n">
-        <v>-8.916</v>
+        <v>-8.79999999999889</v>
       </c>
       <c r="R464" s="2" t="n">
         <v>0.27</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="Q465" s="3" t="n">
-        <v>-8.991</v>
+        <v>-8.80000000001008</v>
       </c>
       <c r="R465" s="2" t="n">
         <v>0.3</v>
@@ -29552,10 +29552,10 @@
         <v>-0.30000000008908</v>
       </c>
       <c r="C466" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D466" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E466" s="2" t="n">
         <v>0</v>
@@ -29567,10 +29567,10 @@
         <v>-2.353</v>
       </c>
       <c r="H466" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I466" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J466" s="2" t="n">
         <v>0</v>
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="Q466" s="3" t="n">
-        <v>-9.118</v>
+        <v>-8.79999999999546</v>
       </c>
       <c r="R466" s="2" t="n">
         <v>0.28</v>
@@ -29620,10 +29620,10 @@
         <v>-0.300000000030209</v>
       </c>
       <c r="C467" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D467" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E467" s="2" t="n">
         <v>0</v>
@@ -29635,10 +29635,10 @@
         <v>-2.525</v>
       </c>
       <c r="H467" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I467" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J467" s="2" t="n">
         <v>0</v>
@@ -29662,13 +29662,13 @@
         <v>0</v>
       </c>
       <c r="Q467" s="3" t="n">
-        <v>-9.207000000000001</v>
+        <v>-8.79999999998582</v>
       </c>
       <c r="R467" s="2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="S467" s="2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="T467" s="2" t="n">
         <v>0</v>
@@ -29730,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="Q468" s="3" t="n">
-        <v>-9.414999999999999</v>
+        <v>-8.8000000000073</v>
       </c>
       <c r="R468" s="2" t="n">
         <v>0.3</v>
@@ -29756,10 +29756,10 @@
         <v>-0.300000000003487</v>
       </c>
       <c r="C469" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D469" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E469" s="2" t="n">
         <v>0</v>
@@ -29771,10 +29771,10 @@
         <v>-3.104</v>
       </c>
       <c r="H469" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I469" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J469" s="2" t="n">
         <v>0</v>
@@ -29798,13 +29798,13 @@
         <v>0</v>
       </c>
       <c r="Q469" s="3" t="n">
-        <v>-9.819000000000001</v>
+        <v>-8.79999999999546</v>
       </c>
       <c r="R469" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="S469" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="T469" s="2" t="n">
         <v>0</v>
@@ -29866,13 +29866,13 @@
         <v>0</v>
       </c>
       <c r="Q470" s="3" t="n">
-        <v>-10.177</v>
+        <v>-8.800000000003291</v>
       </c>
       <c r="R470" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="S470" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="T470" s="2" t="n">
         <v>0</v>
@@ -29934,13 +29934,13 @@
         <v>0</v>
       </c>
       <c r="Q471" s="3" t="n">
-        <v>-10.382</v>
+        <v>-8.800000000013579</v>
       </c>
       <c r="R471" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="S471" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="T471" s="2" t="n">
         <v>0</v>
@@ -30002,13 +30002,13 @@
         <v>0</v>
       </c>
       <c r="Q472" s="3" t="n">
-        <v>-10.655</v>
+        <v>-8.800000000003919</v>
       </c>
       <c r="R472" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="S472" s="2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="T472" s="2" t="n">
         <v>0</v>
@@ -30070,13 +30070,13 @@
         <v>0</v>
       </c>
       <c r="Q473" s="3" t="n">
-        <v>-10.7999999999981</v>
+        <v>-8.799999999998819</v>
       </c>
       <c r="R473" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="S473" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="T473" s="2" t="n">
         <v>0</v>
@@ -30138,13 +30138,13 @@
         <v>0</v>
       </c>
       <c r="Q474" s="3" t="n">
-        <v>-10.799999999994</v>
+        <v>-8.79999999999802</v>
       </c>
       <c r="R474" s="2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="S474" s="2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="T474" s="2" t="n">
         <v>0</v>
@@ -30164,10 +30164,10 @@
         <v>-0.300000000005773</v>
       </c>
       <c r="C475" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D475" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E475" s="2" t="n">
         <v>0</v>
@@ -30179,10 +30179,10 @@
         <v>-4.582</v>
       </c>
       <c r="H475" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I475" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J475" s="2" t="n">
         <v>0</v>
@@ -30206,7 +30206,7 @@
         <v>0</v>
       </c>
       <c r="Q475" s="3" t="n">
-        <v>-10.7999999999967</v>
+        <v>-8.79999999999416</v>
       </c>
       <c r="R475" s="2" t="n">
         <v>0.28</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="Q476" s="3" t="n">
-        <v>-10.7999999999954</v>
+        <v>-8.79999999999737</v>
       </c>
       <c r="R476" s="2" t="n">
         <v>0.28</v>
@@ -30300,10 +30300,10 @@
         <v>-0.30000000000354</v>
       </c>
       <c r="C477" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D477" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E477" s="2" t="n">
         <v>0</v>
@@ -30315,10 +30315,10 @@
         <v>-4.821</v>
       </c>
       <c r="H477" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I477" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J477" s="2" t="n">
         <v>0</v>
@@ -30342,13 +30342,13 @@
         <v>0</v>
       </c>
       <c r="Q477" s="3" t="n">
-        <v>-10.7999999999972</v>
+        <v>-8.800000000001519</v>
       </c>
       <c r="R477" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="S477" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="T477" s="2" t="n">
         <v>0</v>
@@ -30368,10 +30368,10 @@
         <v>-0.300000000006208</v>
       </c>
       <c r="C478" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D478" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E478" s="2" t="n">
         <v>0</v>
@@ -30383,10 +30383,10 @@
         <v>-4.916</v>
       </c>
       <c r="H478" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I478" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J478" s="2" t="n">
         <v>0</v>
@@ -30410,13 +30410,13 @@
         <v>0</v>
       </c>
       <c r="Q478" s="3" t="n">
-        <v>-10.8000000000071</v>
+        <v>-8.80000000000352</v>
       </c>
       <c r="R478" s="2" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="S478" s="2" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="T478" s="2" t="n">
         <v>0</v>
@@ -30478,13 +30478,13 @@
         <v>0</v>
       </c>
       <c r="Q479" s="3" t="n">
-        <v>-10.8000000000055</v>
+        <v>-8.79999999999481</v>
       </c>
       <c r="R479" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="S479" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="T479" s="2" t="n">
         <v>0</v>
@@ -30546,7 +30546,7 @@
         <v>0</v>
       </c>
       <c r="Q480" s="3" t="n">
-        <v>-10.7999999999852</v>
+        <v>-8.799999999980569</v>
       </c>
       <c r="R480" s="2" t="n">
         <v>0.29</v>
@@ -30572,10 +30572,10 @@
         <v>-0.299999999998833</v>
       </c>
       <c r="C481" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D481" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E481" s="2" t="n">
         <v>0</v>
@@ -30587,10 +30587,10 @@
         <v>-4.907</v>
       </c>
       <c r="H481" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I481" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J481" s="2" t="n">
         <v>0</v>
@@ -30614,7 +30614,7 @@
         <v>0</v>
       </c>
       <c r="Q481" s="3" t="n">
-        <v>-10.8000000000022</v>
+        <v>-8.80000000000217</v>
       </c>
       <c r="R481" s="2" t="n">
         <v>0.28</v>
@@ -30640,10 +30640,10 @@
         <v>-0.299999999998704</v>
       </c>
       <c r="C482" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D482" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E482" s="2" t="n">
         <v>0</v>
@@ -30655,10 +30655,10 @@
         <v>-4.838</v>
       </c>
       <c r="H482" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I482" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J482" s="2" t="n">
         <v>0</v>
@@ -30682,7 +30682,7 @@
         <v>0</v>
       </c>
       <c r="Q482" s="3" t="n">
-        <v>-10.7999999999974</v>
+        <v>-8.8000000000035</v>
       </c>
       <c r="R482" s="2" t="n">
         <v>0.28</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="Q483" s="3" t="n">
-        <v>-10.7999999999937</v>
+        <v>-8.799999999992</v>
       </c>
       <c r="R483" s="2" t="n">
         <v>0.3</v>
@@ -30776,10 +30776,10 @@
         <v>-0.300000000032176</v>
       </c>
       <c r="C484" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D484" s="2" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E484" s="2" t="n">
         <v>0</v>
@@ -30791,10 +30791,10 @@
         <v>-4.711</v>
       </c>
       <c r="H484" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I484" s="2" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="J484" s="2" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q484" s="3" t="n">
-        <v>-10.7999999999906</v>
+        <v>-8.79999999998781</v>
       </c>
       <c r="R484" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="S484" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="T484" s="2" t="n">
         <v>0</v>
@@ -30886,13 +30886,13 @@
         <v>0</v>
       </c>
       <c r="Q485" s="3" t="n">
-        <v>-10.8000000000099</v>
+        <v>-8.80000000001151</v>
       </c>
       <c r="R485" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="S485" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="T485" s="2" t="n">
         <v>0</v>
@@ -30954,13 +30954,13 @@
         <v>0</v>
       </c>
       <c r="Q486" s="3" t="n">
-        <v>-10.799999999982</v>
+        <v>-8.79999999998665</v>
       </c>
       <c r="R486" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="S486" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="T486" s="2" t="n">
         <v>0</v>
@@ -31022,13 +31022,13 @@
         <v>0</v>
       </c>
       <c r="Q487" s="3" t="n">
-        <v>-10.7999999999908</v>
+        <v>-8.799999999994419</v>
       </c>
       <c r="R487" s="2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="S487" s="2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="T487" s="2" t="n">
         <v>0</v>
@@ -31090,7 +31090,7 @@
         <v>0</v>
       </c>
       <c r="Q488" s="3" t="n">
-        <v>-10.8000000000016</v>
+        <v>-8.79999999999924</v>
       </c>
       <c r="R488" s="2" t="n">
         <v>0.34</v>
@@ -31158,13 +31158,13 @@
         <v>0</v>
       </c>
       <c r="Q489" s="3" t="n">
-        <v>-10.7999999999821</v>
+        <v>-8.79999999998253</v>
       </c>
       <c r="R489" s="2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="S489" s="2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="T489" s="2" t="n">
         <v>0</v>
@@ -31226,7 +31226,7 @@
         <v>0</v>
       </c>
       <c r="Q490" s="3" t="n">
-        <v>-10.799999999983</v>
+        <v>-8.799999999992879</v>
       </c>
       <c r="R490" s="2" t="n">
         <v>0.34</v>
@@ -31282,10 +31282,10 @@
         <v>-5.258</v>
       </c>
       <c r="M491" s="2" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="N491" s="2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="O491" s="2" t="n">
         <v>0</v>
@@ -31294,13 +31294,13 @@
         <v>0</v>
       </c>
       <c r="Q491" s="3" t="n">
-        <v>-10.7999999999993</v>
+        <v>-8.799999999992879</v>
       </c>
       <c r="R491" s="2" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="S491" s="2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="T491" s="2" t="n">
         <v>0</v>
@@ -31350,10 +31350,10 @@
         <v>-5.217</v>
       </c>
       <c r="M492" s="2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="N492" s="2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="O492" s="2" t="n">
         <v>0</v>
@@ -31362,13 +31362,13 @@
         <v>0</v>
       </c>
       <c r="Q492" s="3" t="n">
-        <v>-10.7999999999993</v>
+        <v>-8.799999999992879</v>
       </c>
       <c r="R492" s="2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="S492" s="2" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="T492" s="2" t="n">
         <v>0</v>
@@ -31418,10 +31418,10 @@
         <v>-5.197</v>
       </c>
       <c r="M493" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N493" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O493" s="2" t="n">
         <v>0</v>
@@ -31430,13 +31430,13 @@
         <v>0</v>
       </c>
       <c r="Q493" s="3" t="n">
-        <v>-10.7999999999975</v>
+        <v>-8.799999999991091</v>
       </c>
       <c r="R493" s="2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="S493" s="2" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="T493" s="2" t="n">
         <v>0</v>
@@ -31486,10 +31486,10 @@
         <v>-5.221</v>
       </c>
       <c r="M494" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="N494" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O494" s="2" t="n">
         <v>0</v>
@@ -31498,13 +31498,13 @@
         <v>0</v>
       </c>
       <c r="Q494" s="3" t="n">
-        <v>-10.7999999999975</v>
+        <v>-8.799999999992879</v>
       </c>
       <c r="R494" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="S494" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="T494" s="2" t="n">
         <v>0</v>
@@ -31554,10 +31554,10 @@
         <v>-5.159</v>
       </c>
       <c r="M495" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="N495" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="O495" s="2" t="n">
         <v>0</v>
@@ -31566,10 +31566,10 @@
         <v>0</v>
       </c>
       <c r="Q495" s="3" t="n">
-        <v>-10.7999999999993</v>
+        <v>-8.799999999992879</v>
       </c>
       <c r="R495" s="2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="S495" s="2" t="n">
         <v>0.26</v>
@@ -31622,28 +31622,28 @@
         <v>-5.114</v>
       </c>
       <c r="M496" s="2" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="N496" s="2" t="n">
         <v>0.19</v>
       </c>
       <c r="O496" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P496" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q496" s="3" t="n">
-        <v>-10.7999999999993</v>
+        <v>-8.799999999992879</v>
       </c>
       <c r="R496" s="2" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="S496" s="2" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="T496" s="2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="U496" s="2" t="n">
         <v>0</v>
@@ -31702,13 +31702,13 @@
         <v>0</v>
       </c>
       <c r="Q497" s="3" t="n">
-        <v>-10.7999999999975</v>
+        <v>-8.799999999991091</v>
       </c>
       <c r="R497" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="S497" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="T497" s="2" t="n">
         <v>0</v>
@@ -31770,7 +31770,7 @@
         <v>0</v>
       </c>
       <c r="Q498" s="3" t="n">
-        <v>-10.7999999999975</v>
+        <v>-8.799999999991091</v>
       </c>
       <c r="R498" s="2" t="n">
         <v>0.38</v>
@@ -31796,13 +31796,13 @@
         <v>-0.300000000075493</v>
       </c>
       <c r="C499" s="2" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="D499" s="2" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="E499" s="2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F499" s="2" t="n">
         <v>0</v>
@@ -31811,13 +31811,13 @@
         <v>-5.088</v>
       </c>
       <c r="H499" s="2" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="I499" s="2" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="J499" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K499" s="2" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>0</v>
       </c>
       <c r="Q499" s="3" t="n">
-        <v>-10.7999999999958</v>
+        <v>-8.79999999998839</v>
       </c>
       <c r="R499" s="2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="S499" s="2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="T499" s="2" t="n">
         <v>0</v>
@@ -31906,13 +31906,13 @@
         <v>0</v>
       </c>
       <c r="Q500" s="3" t="n">
-        <v>-10.7999999999952</v>
+        <v>-8.79999999999721</v>
       </c>
       <c r="R500" s="2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="S500" s="2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="T500" s="2" t="n">
         <v>0</v>
@@ -31974,13 +31974,13 @@
         <v>0</v>
       </c>
       <c r="Q501" s="3" t="n">
-        <v>-10.7999999999927</v>
+        <v>-8.79999999998244</v>
       </c>
       <c r="R501" s="2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="S501" s="2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="T501" s="2" t="n">
         <v>0</v>
@@ -32030,28 +32030,28 @@
         <v>-5.533</v>
       </c>
       <c r="M502" s="2" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="N502" s="2" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="O502" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P502" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q502" s="3" t="n">
-        <v>-10.7999999999893</v>
+        <v>-8.799999999997381</v>
       </c>
       <c r="R502" s="2" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="S502" s="2" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="T502" s="2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="U502" s="2" t="n">
         <v>0</v>
@@ -32110,13 +32110,13 @@
         <v>0</v>
       </c>
       <c r="Q503" s="3" t="n">
-        <v>-10.799999999996</v>
+        <v>-8.799999999993529</v>
       </c>
       <c r="R503" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="S503" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="T503" s="2" t="n">
         <v>0</v>
@@ -32166,10 +32166,10 @@
         <v>-5.857</v>
       </c>
       <c r="M504" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="N504" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="O504" s="2" t="n">
         <v>0</v>
@@ -32178,13 +32178,13 @@
         <v>0</v>
       </c>
       <c r="Q504" s="3" t="n">
-        <v>-10.7999999999779</v>
+        <v>-8.79999999998793</v>
       </c>
       <c r="R504" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="S504" s="2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="T504" s="2" t="n">
         <v>0</v>
@@ -32234,10 +32234,10 @@
         <v>-5.904</v>
       </c>
       <c r="M505" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="N505" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O505" s="2" t="n">
         <v>0</v>
@@ -32246,13 +32246,13 @@
         <v>0</v>
       </c>
       <c r="Q505" s="3" t="n">
-        <v>-10.7999999999891</v>
+        <v>-8.799999999985641</v>
       </c>
       <c r="R505" s="2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="S505" s="2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="T505" s="2" t="n">
         <v>0</v>
@@ -32314,13 +32314,13 @@
         <v>0</v>
       </c>
       <c r="Q506" s="3" t="n">
-        <v>-10.8000000000002</v>
+        <v>-8.800000000002431</v>
       </c>
       <c r="R506" s="2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="S506" s="2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="T506" s="2" t="n">
         <v>0</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="Q507" s="3" t="n">
-        <v>-10.7999999999928</v>
+        <v>-8.799999999994389</v>
       </c>
       <c r="R507" s="2" t="n">
         <v>0.25</v>
@@ -32391,7 +32391,7 @@
         <v>0.25</v>
       </c>
       <c r="T507" s="2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="U507" s="2" t="n">
         <v>0</v>
@@ -32450,7 +32450,7 @@
         <v>0</v>
       </c>
       <c r="Q508" s="3" t="n">
-        <v>-10.7999999999977</v>
+        <v>-8.80000000000209</v>
       </c>
       <c r="R508" s="2" t="n">
         <v>0.32</v>
@@ -32476,10 +32476,10 @@
         <v>-0.300000000084319</v>
       </c>
       <c r="C509" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D509" s="2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="E509" s="2" t="n">
         <v>0</v>
@@ -32491,10 +32491,10 @@
         <v>-5.221</v>
       </c>
       <c r="H509" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I509" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J509" s="2" t="n">
         <v>0</v>
@@ -32518,7 +32518,7 @@
         <v>0</v>
       </c>
       <c r="Q509" s="3" t="n">
-        <v>-10.8000000000065</v>
+        <v>-8.80000000000457</v>
       </c>
       <c r="R509" s="2" t="n">
         <v>0.24</v>
@@ -32574,10 +32574,10 @@
         <v>-4.862</v>
       </c>
       <c r="M510" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="N510" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O510" s="2" t="n">
         <v>0</v>
@@ -32586,13 +32586,13 @@
         <v>0</v>
       </c>
       <c r="Q510" s="3" t="n">
-        <v>-10.8000000000254</v>
+        <v>-8.80000000001613</v>
       </c>
       <c r="R510" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="S510" s="2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="T510" s="2" t="n">
         <v>0</v>
@@ -32642,10 +32642,10 @@
         <v>-4.666</v>
       </c>
       <c r="M511" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="N511" s="2" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="O511" s="2" t="n">
         <v>0</v>
@@ -32654,13 +32654,13 @@
         <v>0</v>
       </c>
       <c r="Q511" s="3" t="n">
-        <v>-10.8000000000003</v>
+        <v>-8.800000000003759</v>
       </c>
       <c r="R511" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="S511" s="2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="T511" s="2" t="n">
         <v>0</v>
@@ -32680,10 +32680,10 @@
         <v>-0.300000000034003</v>
       </c>
       <c r="C512" s="2" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="D512" s="2" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="E512" s="2" t="n">
         <v>0</v>
@@ -32695,10 +32695,10 @@
         <v>-4.571</v>
       </c>
       <c r="H512" s="2" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I512" s="2" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="J512" s="2" t="n">
         <v>0</v>
@@ -32722,7 +32722,7 @@
         <v>0</v>
       </c>
       <c r="Q512" s="3" t="n">
-        <v>-10.8000000000176</v>
+        <v>-8.800000000022401</v>
       </c>
       <c r="R512" s="2" t="n">
         <v>0.16</v>
@@ -32748,10 +32748,10 @@
         <v>-0.300000000101255</v>
       </c>
       <c r="C513" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D513" s="2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E513" s="2" t="n">
         <v>0</v>
@@ -32763,10 +32763,10 @@
         <v>-4.512</v>
       </c>
       <c r="H513" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I513" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="J513" s="2" t="n">
         <v>0</v>
@@ -32778,10 +32778,10 @@
         <v>-4.512</v>
       </c>
       <c r="M513" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="N513" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O513" s="2" t="n">
         <v>0</v>
@@ -32790,10 +32790,10 @@
         <v>0</v>
       </c>
       <c r="Q513" s="3" t="n">
-        <v>-10.8000000000086</v>
+        <v>-8.800000000001191</v>
       </c>
       <c r="R513" s="2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="S513" s="2" t="n">
         <v>0.3</v>
@@ -32816,10 +32816,10 @@
         <v>-0.300000000005213</v>
       </c>
       <c r="C514" s="2" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D514" s="2" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="E514" s="2" t="n">
         <v>0</v>
@@ -32831,10 +32831,10 @@
         <v>-4.393</v>
       </c>
       <c r="H514" s="2" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I514" s="2" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="J514" s="2" t="n">
         <v>0</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="Q514" s="3" t="n">
-        <v>-10.7999999999928</v>
+        <v>-8.799999999994521</v>
       </c>
       <c r="R514" s="2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="S514" s="2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="T514" s="2" t="n">
         <v>0</v>
@@ -32926,13 +32926,13 @@
         <v>0</v>
       </c>
       <c r="Q515" s="3" t="n">
-        <v>-10.7999999999932</v>
+        <v>-8.799999999994521</v>
       </c>
       <c r="R515" s="2" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="S515" s="2" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="T515" s="2" t="n">
         <v>0</v>
@@ -32994,13 +32994,13 @@
         <v>0</v>
       </c>
       <c r="Q516" s="3" t="n">
-        <v>-10.7999999999932</v>
+        <v>-8.799999999994521</v>
       </c>
       <c r="R516" s="2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="S516" s="2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="T516" s="2" t="n">
         <v>0</v>
@@ -33062,13 +33062,13 @@
         <v>0</v>
       </c>
       <c r="Q517" s="3" t="n">
-        <v>-10.8000000000125</v>
+        <v>-8.800000000014361</v>
       </c>
       <c r="R517" s="2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="S517" s="2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="T517" s="2" t="n">
         <v>0</v>
@@ -33088,13 +33088,13 @@
         <v>-0.300000000028711</v>
       </c>
       <c r="C518" s="2" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="D518" s="2" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="E518" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F518" s="2" t="n">
         <v>0</v>
@@ -33103,13 +33103,13 @@
         <v>-3.916</v>
       </c>
       <c r="H518" s="2" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I518" s="2" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J518" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K518" s="2" t="n">
         <v>0</v>
@@ -33130,13 +33130,13 @@
         <v>0</v>
       </c>
       <c r="Q518" s="3" t="n">
-        <v>-10.782</v>
+        <v>-8.800000000017921</v>
       </c>
       <c r="R518" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="S518" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="T518" s="2" t="n">
         <v>0</v>
@@ -33198,13 +33198,13 @@
         <v>0</v>
       </c>
       <c r="Q519" s="3" t="n">
-        <v>-10.8000000000056</v>
+        <v>-8.800000000003109</v>
       </c>
       <c r="R519" s="2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="S519" s="2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="T519" s="2" t="n">
         <v>0</v>
@@ -33266,13 +33266,13 @@
         <v>0</v>
       </c>
       <c r="Q520" s="3" t="n">
-        <v>-10.8000000000107</v>
+        <v>-8.800000000012069</v>
       </c>
       <c r="R520" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="S520" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="T520" s="2" t="n">
         <v>0</v>
@@ -33334,7 +33334,7 @@
         <v>0</v>
       </c>
       <c r="Q521" s="3" t="n">
-        <v>-10.7999999999972</v>
+        <v>-8.79999999999608</v>
       </c>
       <c r="R521" s="2" t="n">
         <v>0.4</v>
@@ -33402,13 +33402,13 @@
         <v>0</v>
       </c>
       <c r="Q522" s="3" t="n">
-        <v>-10.7999999999963</v>
+        <v>-8.799999999997491</v>
       </c>
       <c r="R522" s="2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="S522" s="2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="T522" s="2" t="n">
         <v>0</v>
@@ -33470,13 +33470,13 @@
         <v>0</v>
       </c>
       <c r="Q523" s="3" t="n">
-        <v>-10.800000000003</v>
+        <v>-8.799999999992581</v>
       </c>
       <c r="R523" s="2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="S523" s="2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="T523" s="2" t="n">
         <v>0</v>
@@ -33538,7 +33538,7 @@
         <v>0</v>
       </c>
       <c r="Q524" s="3" t="n">
-        <v>-10.799999999994</v>
+        <v>-8.80000000000401</v>
       </c>
       <c r="R524" s="2" t="n">
         <v>0.38</v>
@@ -33606,13 +33606,13 @@
         <v>0</v>
       </c>
       <c r="Q525" s="3" t="n">
-        <v>-10.7999999999846</v>
+        <v>-8.799999999991879</v>
       </c>
       <c r="R525" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="S525" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="T525" s="2" t="n">
         <v>0</v>
@@ -33674,13 +33674,13 @@
         <v>0</v>
       </c>
       <c r="Q526" s="3" t="n">
-        <v>-10.769</v>
+        <v>-8.799999999995659</v>
       </c>
       <c r="R526" s="2" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="S526" s="2" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="T526" s="2" t="n">
         <v>0</v>
@@ -33742,13 +33742,13 @@
         <v>0</v>
       </c>
       <c r="Q527" s="3" t="n">
-        <v>-9.407</v>
+        <v>-9.00078263048913</v>
       </c>
       <c r="R527" s="2" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="S527" s="2" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="T527" s="2" t="n">
         <v>0</v>
@@ -33960,10 +33960,10 @@
         <v>-0.300000000004344</v>
       </c>
       <c r="C531" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D531" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E531" s="2" t="n">
         <v>0</v>
@@ -34001,10 +34001,10 @@
         <v>-6.439</v>
       </c>
       <c r="R531" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S531" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="T531" s="2" t="n">
         <v>0</v>
@@ -34152,10 +34152,10 @@
         <v>-0.300000000008061</v>
       </c>
       <c r="C534" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D534" s="2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E534" s="2" t="n">
         <v>0</v>
@@ -34193,10 +34193,10 @@
         <v>-7.239</v>
       </c>
       <c r="R534" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S534" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="T534" s="2" t="n">
         <v>0</v>
@@ -34344,10 +34344,10 @@
         <v>-0.300000000007116</v>
       </c>
       <c r="C537" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D537" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E537" s="2" t="n">
         <v>0</v>
@@ -34385,10 +34385,10 @@
         <v>-9.776</v>
       </c>
       <c r="R537" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S537" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="T537" s="2" t="n">
         <v>0</v>
@@ -34664,10 +34664,10 @@
         <v>-0.300000000007116</v>
       </c>
       <c r="C542" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D542" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E542" s="2" t="n">
         <v>0</v>
@@ -34705,10 +34705,10 @@
         <v>-6.919</v>
       </c>
       <c r="R542" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S542" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="T542" s="2" t="n">
         <v>0</v>
@@ -36456,13 +36456,13 @@
         <v>-0.300000000012235</v>
       </c>
       <c r="C570" s="2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D570" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E570" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F570" s="2" t="n">
         <v>0</v>
@@ -36497,13 +36497,13 @@
         <v>-5.352</v>
       </c>
       <c r="R570" s="2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S570" s="2" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="T570" s="2" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="U570" s="2" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>-0.299999999999168</v>
       </c>
       <c r="C591" s="2" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="D591" s="2" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="E591" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F591" s="2" t="n">
         <v>0</v>
@@ -37821,13 +37821,13 @@
         <v>-6.002</v>
       </c>
       <c r="R591" s="2" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="S591" s="2" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="T591" s="2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="U591" s="2" t="n">
         <v>0</v>
@@ -38420,13 +38420,13 @@
         <v>-0.299999999990689</v>
       </c>
       <c r="C601" s="2" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="D601" s="2" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="E601" s="2" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F601" s="2" t="n">
         <v>0</v>
@@ -38461,13 +38461,13 @@
         <v>-6.221</v>
       </c>
       <c r="R601" s="2" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="S601" s="2" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="T601" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U601" s="2" t="n">
         <v>0</v>
@@ -38996,10 +38996,10 @@
         <v>-0.30000000000848</v>
       </c>
       <c r="C610" s="2" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="D610" s="2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="E610" s="2" t="n">
         <v>0</v>
@@ -39037,10 +39037,10 @@
         <v>-5.416</v>
       </c>
       <c r="R610" s="2" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="S610" s="2" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="T610" s="2" t="n">
         <v>0</v>
@@ -39508,10 +39508,10 @@
         <v>-0.299999999997719</v>
       </c>
       <c r="C618" s="2" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="D618" s="2" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E618" s="2" t="n">
         <v>0</v>
@@ -39549,10 +39549,10 @@
         <v>-5.754</v>
       </c>
       <c r="R618" s="2" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="S618" s="2" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="T618" s="2" t="n">
         <v>0</v>
@@ -39828,10 +39828,10 @@
         <v>-0.300000000027977</v>
       </c>
       <c r="C623" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D623" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E623" s="2" t="n">
         <v>0</v>
@@ -39869,10 +39869,10 @@
         <v>-5.488</v>
       </c>
       <c r="R623" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S623" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="T623" s="2" t="n">
         <v>0</v>
@@ -39892,10 +39892,10 @@
         <v>-0.299999999993878</v>
       </c>
       <c r="C624" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D624" s="2" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E624" s="2" t="n">
         <v>0</v>
@@ -39933,10 +39933,10 @@
         <v>-5.574</v>
       </c>
       <c r="R624" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="S624" s="2" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="T624" s="2" t="n">
         <v>0</v>
@@ -39956,10 +39956,10 @@
         <v>-0.300000000000493</v>
       </c>
       <c r="C625" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D625" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E625" s="2" t="n">
         <v>0</v>
@@ -39997,10 +39997,10 @@
         <v>-5.733</v>
       </c>
       <c r="R625" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S625" s="2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="T625" s="2" t="n">
         <v>0</v>
@@ -40532,10 +40532,10 @@
         <v>-0.299999999997191</v>
       </c>
       <c r="C634" s="2" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="D634" s="2" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="E634" s="2" t="n">
         <v>0</v>
@@ -40573,10 +40573,10 @@
         <v>-7.345</v>
       </c>
       <c r="R634" s="2" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="S634" s="2" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="T634" s="2" t="n">
         <v>0</v>
@@ -40660,10 +40660,10 @@
         <v>-0.299999999999378</v>
       </c>
       <c r="C636" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D636" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E636" s="2" t="n">
         <v>0</v>
@@ -40701,10 +40701,10 @@
         <v>-7.796</v>
       </c>
       <c r="R636" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S636" s="2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="T636" s="2" t="n">
         <v>0</v>
@@ -41044,10 +41044,10 @@
         <v>-0.299999999994159</v>
       </c>
       <c r="C642" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D642" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E642" s="2" t="n">
         <v>0</v>
@@ -41085,10 +41085,10 @@
         <v>-7.456</v>
       </c>
       <c r="R642" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S642" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T642" s="2" t="n">
         <v>0</v>
@@ -41108,10 +41108,10 @@
         <v>-0.300000000005129</v>
       </c>
       <c r="C643" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D643" s="2" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E643" s="2" t="n">
         <v>0</v>
@@ -41146,13 +41146,13 @@
         <v>0</v>
       </c>
       <c r="Q643" s="3" t="n">
-        <v>-7.614</v>
+        <v>-7.58574296481852</v>
       </c>
       <c r="R643" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S643" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T643" s="2" t="n">
         <v>0</v>
@@ -41172,10 +41172,10 @@
         <v>-0.3</v>
       </c>
       <c r="C644" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D644" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E644" s="2" t="n">
         <v>0</v>
@@ -41210,10 +41210,10 @@
         <v>0</v>
       </c>
       <c r="Q644" s="3" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="R644" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="S644" s="2" t="n">
         <v>0.12</v>

--- a/src/layerSolutions_left_Civil.xlsx
+++ b/src/layerSolutions_left_Civil.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="left" sheetId="1" state="visible" r:id="rId1"/>
@@ -14216,13 +14216,13 @@
         <v>0</v>
       </c>
       <c r="G221" s="3" t="n">
-        <v>-7.801</v>
+        <v>-6.091</v>
       </c>
       <c r="H221" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="I221" s="2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="J221" s="2" t="n">
         <v>0</v>
@@ -14231,13 +14231,13 @@
         <v>0</v>
       </c>
       <c r="L221" s="2" t="n">
-        <v>-7.801</v>
+        <v>-6.091</v>
       </c>
       <c r="M221" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N221" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="O221" s="2" t="n">
         <v>0</v>
@@ -14272,10 +14272,10 @@
         <v>-0.299999999992942</v>
       </c>
       <c r="C222" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E222" s="2" t="n">
         <v>0</v>
@@ -14284,10 +14284,10 @@
         <v>0</v>
       </c>
       <c r="G222" s="3" t="n">
-        <v>-9.188000000000001</v>
+        <v>-7.41</v>
       </c>
       <c r="H222" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I222" s="2" t="n">
         <v>0.3</v>
@@ -14299,13 +14299,13 @@
         <v>0</v>
       </c>
       <c r="L222" s="2" t="n">
-        <v>-9.188000000000001</v>
+        <v>-7.41</v>
       </c>
       <c r="M222" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="N222" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="O222" s="2" t="n">
         <v>0</v>
@@ -14340,10 +14340,10 @@
         <v>-0.299999999999579</v>
       </c>
       <c r="C223" s="2" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="E223" s="2" t="n">
         <v>0</v>
@@ -14352,13 +14352,13 @@
         <v>0</v>
       </c>
       <c r="G223" s="3" t="n">
-        <v>-10.073</v>
+        <v>-8.461</v>
       </c>
       <c r="H223" s="2" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I223" s="2" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="J223" s="2" t="n">
         <v>0</v>
@@ -14367,13 +14367,13 @@
         <v>0</v>
       </c>
       <c r="L223" s="2" t="n">
-        <v>-10.073</v>
+        <v>-8.461</v>
       </c>
       <c r="M223" s="2" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="N223" s="2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O223" s="2" t="n">
         <v>0</v>
@@ -14385,10 +14385,10 @@
         <v>-8.799999999992609</v>
       </c>
       <c r="R223" s="2" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="S223" s="2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="T223" s="2" t="n">
         <v>0</v>
@@ -14408,10 +14408,10 @@
         <v>-0.300000000000845</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E224" s="2" t="n">
         <v>0</v>
@@ -14420,13 +14420,13 @@
         <v>0</v>
       </c>
       <c r="G224" s="3" t="n">
-        <v>-10.766</v>
+        <v>-8.997</v>
       </c>
       <c r="H224" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I224" s="2" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="n">
         <v>0</v>
@@ -14435,13 +14435,13 @@
         <v>0</v>
       </c>
       <c r="L224" s="2" t="n">
-        <v>-10.766</v>
+        <v>-8.997</v>
       </c>
       <c r="M224" s="2" t="n">
         <v>0.14</v>
       </c>
       <c r="N224" s="2" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="O224" s="2" t="n">
         <v>0</v>
@@ -14683,22 +14683,22 @@
         <v>0.12</v>
       </c>
       <c r="D228" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" s="3" t="n">
+        <v>-8.478999999999999</v>
+      </c>
+      <c r="H228" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="E228" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" s="3" t="n">
-        <v>-10.166</v>
-      </c>
-      <c r="H228" s="2" t="n">
-        <v>0.26</v>
-      </c>
       <c r="I228" s="2" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J228" s="2" t="n">
         <v>0</v>
@@ -14707,13 +14707,13 @@
         <v>0</v>
       </c>
       <c r="L228" s="2" t="n">
-        <v>-10.166</v>
+        <v>-8.478999999999999</v>
       </c>
       <c r="M228" s="2" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="N228" s="2" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="O228" s="2" t="n">
         <v>0</v>
@@ -14751,22 +14751,22 @@
         <v>0.12</v>
       </c>
       <c r="D229" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" s="3" t="n">
+        <v>-7.374</v>
+      </c>
+      <c r="H229" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="E229" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" s="3" t="n">
-        <v>-9.205</v>
-      </c>
-      <c r="H229" s="2" t="n">
-        <v>0.24</v>
-      </c>
       <c r="I229" s="2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="J229" s="2" t="n">
         <v>0</v>
@@ -14775,13 +14775,13 @@
         <v>0</v>
       </c>
       <c r="L229" s="2" t="n">
-        <v>-9.205</v>
+        <v>-7.374</v>
       </c>
       <c r="M229" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="N229" s="2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="O229" s="2" t="n">
         <v>0</v>
@@ -14816,40 +14816,40 @@
         <v>-0.300000000038602</v>
       </c>
       <c r="C230" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" s="3" t="n">
+        <v>-6.284</v>
+      </c>
+      <c r="H230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="n">
+        <v>-6.284</v>
+      </c>
+      <c r="M230" s="2" t="n">
         <v>0.13</v>
       </c>
-      <c r="E230" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" s="3" t="n">
-        <v>-8.19</v>
-      </c>
-      <c r="H230" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I230" s="2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J230" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K230" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="n">
-        <v>-8.19</v>
-      </c>
-      <c r="M230" s="2" t="n">
-        <v>0.16</v>
-      </c>
       <c r="N230" s="2" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="O230" s="2" t="n">
         <v>0</v>
@@ -14896,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="G231" s="3" t="n">
-        <v>-7.184</v>
+        <v>-5.372</v>
       </c>
       <c r="H231" s="2" t="n">
         <v>0.13</v>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="L231" s="2" t="n">
-        <v>-7.184</v>
+        <v>-5.372</v>
       </c>
       <c r="M231" s="2" t="n">
         <v>0.12</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="3" t="n">
-        <v>-6.865</v>
+        <v>-5.066</v>
       </c>
       <c r="H237" s="2" t="n">
         <v>0.13</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="L237" s="2" t="n">
-        <v>-6.865</v>
+        <v>-5.066</v>
       </c>
       <c r="M237" s="2" t="n">
         <v>0.13</v>
@@ -16732,13 +16732,13 @@
         <v>0</v>
       </c>
       <c r="G258" s="3" t="n">
-        <v>-6.895</v>
+        <v>-3.081</v>
       </c>
       <c r="H258" s="2" t="n">
         <v>0.16</v>
       </c>
       <c r="I258" s="2" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="J258" s="2" t="n">
         <v>0</v>
@@ -16747,13 +16747,13 @@
         <v>0</v>
       </c>
       <c r="L258" s="2" t="n">
-        <v>-6.895</v>
+        <v>-3.081</v>
       </c>
       <c r="M258" s="2" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="N258" s="2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="O258" s="2" t="n">
         <v>0</v>
@@ -16765,10 +16765,10 @@
         <v>-8.80000000001001</v>
       </c>
       <c r="R258" s="2" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="S258" s="2" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="T258" s="2" t="n">
         <v>0</v>
@@ -16788,40 +16788,40 @@
         <v>-0.300000000165304</v>
       </c>
       <c r="C259" s="2" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F259" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G259" s="3" t="n">
-        <v>-7.551</v>
+        <v>-3.301</v>
       </c>
       <c r="H259" s="2" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I259" s="2" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="J259" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K259" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L259" s="2" t="n">
-        <v>-7.551</v>
+        <v>-3.301</v>
       </c>
       <c r="M259" s="2" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="N259" s="2" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="O259" s="2" t="n">
         <v>0</v>
@@ -16868,13 +16868,13 @@
         <v>0</v>
       </c>
       <c r="G260" s="3" t="n">
-        <v>-8.147</v>
+        <v>-3.53</v>
       </c>
       <c r="H260" s="2" t="n">
         <v>0.22</v>
       </c>
       <c r="I260" s="2" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="J260" s="2" t="n">
         <v>0</v>
@@ -16883,13 +16883,13 @@
         <v>0</v>
       </c>
       <c r="L260" s="2" t="n">
-        <v>-8.147</v>
+        <v>-3.53</v>
       </c>
       <c r="M260" s="2" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="N260" s="2" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="O260" s="2" t="n">
         <v>0</v>
@@ -16924,40 +16924,40 @@
         <v>-0.300000000045387</v>
       </c>
       <c r="C261" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" s="3" t="n">
+        <v>-3.934</v>
+      </c>
+      <c r="H261" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I261" s="2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J261" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="n">
+        <v>-3.934</v>
+      </c>
+      <c r="M261" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N261" s="2" t="n">
         <v>0.12</v>
-      </c>
-      <c r="D261" s="2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E261" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F261" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G261" s="3" t="n">
-        <v>-8.680999999999999</v>
-      </c>
-      <c r="H261" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I261" s="2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J261" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K261" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="n">
-        <v>-8.680999999999999</v>
-      </c>
-      <c r="M261" s="2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N261" s="2" t="n">
-        <v>0.16</v>
       </c>
       <c r="O261" s="2" t="n">
         <v>0</v>
@@ -16992,10 +16992,10 @@
         <v>-0.300000000020933</v>
       </c>
       <c r="C262" s="2" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="E262" s="2" t="n">
         <v>0</v>
@@ -17004,10 +17004,10 @@
         <v>0</v>
       </c>
       <c r="G262" s="3" t="n">
-        <v>-8.606</v>
+        <v>-3.986</v>
       </c>
       <c r="H262" s="2" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I262" s="2" t="n">
         <v>0.18</v>
@@ -17019,13 +17019,13 @@
         <v>0</v>
       </c>
       <c r="L262" s="2" t="n">
-        <v>-8.606</v>
+        <v>-3.986</v>
       </c>
       <c r="M262" s="2" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="N262" s="2" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="O262" s="2" t="n">
         <v>0</v>
@@ -17060,40 +17060,40 @@
         <v>-0.300000000013218</v>
       </c>
       <c r="C263" s="2" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="D263" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" s="3" t="n">
+        <v>-3.802</v>
+      </c>
+      <c r="H263" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I263" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J263" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="n">
+        <v>-3.802</v>
+      </c>
+      <c r="M263" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="E263" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F263" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G263" s="3" t="n">
-        <v>-8.555999999999999</v>
-      </c>
-      <c r="H263" s="2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I263" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J263" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K263" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="n">
-        <v>-8.555999999999999</v>
-      </c>
-      <c r="M263" s="2" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N263" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="O263" s="2" t="n">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>0.3</v>
       </c>
       <c r="S263" s="2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="T263" s="2" t="n">
         <v>0</v>
@@ -17128,40 +17128,40 @@
         <v>-0.300000000003449</v>
       </c>
       <c r="C264" s="2" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="E264" s="2" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F264" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G264" s="3" t="n">
-        <v>-8.125</v>
+        <v>-3.285</v>
       </c>
       <c r="H264" s="2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I264" s="2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="J264" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K264" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L264" s="2" t="n">
-        <v>-8.125</v>
+        <v>-3.285</v>
       </c>
       <c r="M264" s="2" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="N264" s="2" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="O264" s="2" t="n">
         <v>0</v>
@@ -17196,43 +17196,43 @@
         <v>-0.300000000002442</v>
       </c>
       <c r="C265" s="2" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="E265" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F265" s="2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G265" s="3" t="n">
-        <v>-7.604</v>
+        <v>-2.798</v>
       </c>
       <c r="H265" s="2" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="I265" s="2" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="J265" s="2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="K265" s="2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L265" s="2" t="n">
-        <v>-7.604</v>
+        <v>-2.798</v>
       </c>
       <c r="M265" s="2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="N265" s="2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="O265" s="2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P265" s="2" t="n">
         <v>0</v>
@@ -17241,13 +17241,13 @@
         <v>-8.800000000001191</v>
       </c>
       <c r="R265" s="2" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="S265" s="2" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="T265" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U265" s="2" t="n">
         <v>0</v>
@@ -17264,25 +17264,23 @@
         <v>-0.300000000000919</v>
       </c>
       <c r="C266" s="2" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="E266" s="2" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F266" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G266" s="3" t="n">
-        <v>-6.979</v>
-      </c>
+      <c r="G266" s="3" t="inlineStr"/>
       <c r="H266" s="2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I266" s="2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="J266" s="2" t="n">
         <v>0</v>
@@ -17290,14 +17288,12 @@
       <c r="K266" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L266" s="2" t="n">
-        <v>-6.979</v>
-      </c>
+      <c r="L266" s="2" t="inlineStr"/>
       <c r="M266" s="2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N266" s="2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="O266" s="2" t="n">
         <v>0</v>
@@ -17309,13 +17305,13 @@
         <v>-8.80000000000047</v>
       </c>
       <c r="R266" s="2" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="S266" s="2" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="T266" s="2" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="U266" s="2" t="n">
         <v>0</v>
